--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26123</v>
+        <v>18739</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>2632.54</v>
+        <v>14.94</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>22285</v>
+        <v>27742</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>2718.67</v>
+        <v>15.03</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1163</v>
+        <v>1511</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>143.56</v>
+        <v>0.78</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>16597</v>
+        <v>16445</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>1835.37</v>
+        <v>5.61</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1161</v>
+        <v>1521</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>168.21</v>
+        <v>0.76</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>12036</v>
+        <v>10186</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>1401.78</v>
+        <v>5.44</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>29690</v>
+        <v>21818</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>3520.47</v>
+        <v>13.22</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>20495</v>
+        <v>30098</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>3468.6</v>
+        <v>13.31</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>18959</v>
+        <v>21323</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>3820.76</v>
+        <v>14.9</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>31822</v>
+        <v>30021</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>3335.46</v>
+        <v>15.04</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>29313</v>
+        <v>24096</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>3265.46</v>
+        <v>11.55</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>20390</v>
+        <v>30535</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>3158.96</v>
+        <v>15.32</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1078</v>
+        <v>1187</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>134.96</v>
+        <v>0.78</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>10513</v>
+        <v>15902</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>2014.63</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>9089</v>
+        <v>15559</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>1661.92</v>
+        <v>7.98</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24860</v>
+        <v>17391</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>3670.84</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1057</v>
+        <v>1585</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>189.45</v>
+        <v>0.6</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>9593</v>
+        <v>9971</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>1384.33</v>
+        <v>4.7</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>10219</v>
+        <v>8096</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>1115.89</v>
+        <v>5.51</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>422</v>
+        <v>649</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>69.17</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>616</v>
+        <v>535</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>98.36</v>
+        <v>0.46</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>6115</v>
+        <v>5277</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>657.28</v>
+        <v>2.71</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>6692</v>
+        <v>8173</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>1030.22</v>
+        <v>4.05</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>70.93000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>87.61</v>
+        <v>0.27</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3527</v>
+        <v>3582</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>644.22</v>
+        <v>2.14</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3873</v>
+        <v>4344</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>852.79</v>
+        <v>2.46</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3985,28 +3985,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1055</v>
+        <v>933</v>
       </c>
       <c r="W2" t="n">
-        <v>7726</v>
+        <v>1402</v>
       </c>
       <c r="X2" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609</v>
+        <v>473</v>
       </c>
       <c r="Z2" t="n">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>947</v>
+        <v>5964</v>
       </c>
       <c r="AB2" t="n">
-        <v>3505</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4071,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="V3" t="n">
-        <v>923</v>
+        <v>132</v>
       </c>
       <c r="W3" t="n">
-        <v>10359</v>
+        <v>5133</v>
       </c>
       <c r="X3" t="n">
-        <v>6219</v>
+        <v>10163</v>
       </c>
       <c r="Y3" t="n">
-        <v>491</v>
+        <v>35</v>
       </c>
       <c r="Z3" t="n">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="AA3" t="n">
-        <v>4869</v>
+        <v>7156</v>
       </c>
       <c r="AB3" t="n">
-        <v>828</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="V4" t="n">
-        <v>778</v>
+        <v>203</v>
       </c>
       <c r="W4" t="n">
-        <v>2368</v>
+        <v>7284</v>
       </c>
       <c r="X4" t="n">
-        <v>5743</v>
+        <v>5562</v>
       </c>
       <c r="Y4" t="n">
-        <v>622</v>
+        <v>944</v>
       </c>
       <c r="Z4" t="n">
-        <v>753</v>
+        <v>408</v>
       </c>
       <c r="AA4" t="n">
-        <v>3737</v>
+        <v>928</v>
       </c>
       <c r="AB4" t="n">
-        <v>3114</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="V5" t="n">
-        <v>593</v>
+        <v>496</v>
       </c>
       <c r="W5" t="n">
-        <v>2721</v>
+        <v>599</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>9407</v>
       </c>
       <c r="Y5" t="n">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="AA5" t="n">
-        <v>5237</v>
+        <v>2351</v>
       </c>
       <c r="AB5" t="n">
-        <v>5772</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="W6" t="n">
-        <v>3030</v>
+        <v>8418</v>
       </c>
       <c r="X6" t="n">
-        <v>4638</v>
+        <v>2630</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="Z6" t="n">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AA6" t="n">
-        <v>1670</v>
+        <v>2180</v>
       </c>
       <c r="AB6" t="n">
-        <v>4427</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="V7" t="n">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5131</v>
+        <v>5140</v>
       </c>
       <c r="X7" t="n">
-        <v>3145</v>
+        <v>14219</v>
       </c>
       <c r="Y7" t="n">
-        <v>1206</v>
+        <v>279</v>
       </c>
       <c r="Z7" t="n">
-        <v>657</v>
+        <v>177</v>
       </c>
       <c r="AA7" t="n">
-        <v>3304</v>
+        <v>2139</v>
       </c>
       <c r="AB7" t="n">
-        <v>1515</v>
+        <v>11415</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>765</v>
+        <v>996</v>
       </c>
       <c r="V8" t="n">
-        <v>1013</v>
+        <v>183</v>
       </c>
       <c r="W8" t="n">
-        <v>518</v>
+        <v>7611</v>
       </c>
       <c r="X8" t="n">
-        <v>246</v>
+        <v>3385</v>
       </c>
       <c r="Y8" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AA8" t="n">
-        <v>141</v>
+        <v>4379</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,25 +4587,25 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1185</v>
+        <v>265</v>
       </c>
       <c r="W9" t="n">
-        <v>6073</v>
+        <v>3957</v>
       </c>
       <c r="X9" t="n">
-        <v>2810</v>
+        <v>2941</v>
       </c>
       <c r="Y9" t="n">
-        <v>478</v>
+        <v>608</v>
       </c>
       <c r="Z9" t="n">
-        <v>478</v>
+        <v>124</v>
       </c>
       <c r="AA9" t="n">
-        <v>3234</v>
+        <v>6257</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>287</v>
+        <v>720</v>
       </c>
       <c r="V10" t="n">
-        <v>631</v>
+        <v>483</v>
       </c>
       <c r="W10" t="n">
-        <v>5427</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>7511</v>
+        <v>6601</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="Z10" t="n">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>6325</v>
       </c>
       <c r="AB10" t="n">
-        <v>879</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="V11" t="n">
-        <v>1285</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2748</v>
+        <v>5912</v>
       </c>
       <c r="X11" t="n">
-        <v>5261</v>
+        <v>7434</v>
       </c>
       <c r="Y11" t="n">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>4273</v>
       </c>
       <c r="AB11" t="n">
-        <v>2144</v>
+        <v>4799</v>
       </c>
     </row>
   </sheetData>
@@ -4947,28 +4947,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>12.85</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>26.37499999999999</v>
+        <v>23.325</v>
       </c>
       <c r="W2" t="n">
-        <v>193.1499999999999</v>
+        <v>35.04999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>10.275</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.22499999999999</v>
+        <v>11.825</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.575</v>
+        <v>1.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>23.67499999999999</v>
+        <v>149.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.62499999999999</v>
+        <v>230.2</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5033,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>18.61999999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>43.84249999999999</v>
+        <v>6.269999999999998</v>
       </c>
       <c r="W3" t="n">
-        <v>492.0524999999998</v>
+        <v>243.8174999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>295.4024999999999</v>
+        <v>482.7424999999998</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.32249999999999</v>
+        <v>1.6625</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.64</v>
+        <v>12.5875</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.2774999999999</v>
+        <v>339.9099999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.32999999999999</v>
+        <v>184.7274999999999</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>69.17274999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>52.70949999999998</v>
+        <v>13.75325</v>
       </c>
       <c r="W4" t="n">
-        <v>160.432</v>
+        <v>493.4909999999998</v>
       </c>
       <c r="X4" t="n">
-        <v>389.0882499999998</v>
+        <v>376.8254999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.14049999999999</v>
+        <v>63.95599999999997</v>
       </c>
       <c r="Z4" t="n">
-        <v>51.01574999999998</v>
+        <v>27.64199999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.1817499999999</v>
+        <v>62.87199999999998</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.9734999999999</v>
+        <v>292.4089999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>70.585475</v>
       </c>
       <c r="V5" t="n">
-        <v>50.983175</v>
+        <v>42.6436</v>
       </c>
       <c r="W5" t="n">
-        <v>233.937975</v>
+        <v>51.499025</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>808.7668249999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.380875</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>57.25935</v>
+        <v>53.218525</v>
       </c>
       <c r="AA5" t="n">
-        <v>450.251075</v>
+        <v>202.127225</v>
       </c>
       <c r="AB5" t="n">
-        <v>496.2477</v>
+        <v>306.58685</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>34.60359499999999</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>24.67297749999999</v>
       </c>
       <c r="W6" t="n">
-        <v>310.2038249999999</v>
+        <v>861.8137949999998</v>
       </c>
       <c r="X6" t="n">
-        <v>474.8268449999999</v>
+        <v>269.252825</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>77.90927749999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>48.93644499999999</v>
+        <v>42.17952999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>170.970425</v>
+        <v>223.1829499999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>453.2251924999999</v>
+        <v>228.4042025</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +5377,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7.731223499999999</v>
+        <v>3.9827515</v>
       </c>
       <c r="V7" t="n">
-        <v>73.32948349999999</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>601.0440572499999</v>
+        <v>602.098315</v>
       </c>
       <c r="X7" t="n">
-        <v>368.40451375</v>
+        <v>1665.61010525</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.2705385</v>
+        <v>32.68199025</v>
       </c>
       <c r="Z7" t="n">
-        <v>76.96081574999999</v>
+        <v>20.73373575</v>
       </c>
       <c r="AA7" t="n">
-        <v>387.029734</v>
+        <v>250.56192525</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.46672125</v>
+        <v>1337.15024625</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +5463,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>99.77571787499997</v>
+        <v>129.9040719</v>
       </c>
       <c r="V8" t="n">
-        <v>132.121310075</v>
+        <v>23.86791682499999</v>
       </c>
       <c r="W8" t="n">
-        <v>67.56055144999998</v>
+        <v>992.6705735249998</v>
       </c>
       <c r="X8" t="n">
-        <v>32.08474064999999</v>
+        <v>441.4912483749999</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.172588925</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>80.60312894999998</v>
+        <v>79.69014852499998</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.39003427499999</v>
+        <v>571.1344687249998</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>422.8403625499999</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5549,25 +5549,25 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>64.35720526999999</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>168.7240890375</v>
+        <v>37.7315473375</v>
       </c>
       <c r="W9" t="n">
-        <v>864.6931584174998</v>
+        <v>563.4103125075</v>
       </c>
       <c r="X9" t="n">
-        <v>400.0967849749999</v>
+        <v>418.7489838474999</v>
       </c>
       <c r="Y9" t="n">
-        <v>68.05916840499999</v>
+        <v>86.56898407999998</v>
       </c>
       <c r="Z9" t="n">
-        <v>68.05916840499999</v>
+        <v>17.65551649</v>
       </c>
       <c r="AA9" t="n">
-        <v>460.4672607149999</v>
+        <v>890.8916667574998</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -5635,28 +5635,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>43.95257991424999</v>
+        <v>110.26431198</v>
       </c>
       <c r="V10" t="n">
-        <v>96.63441786024998</v>
+        <v>73.96897595324998</v>
       </c>
       <c r="W10" t="n">
-        <v>831.1172515492498</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1150.27117678025</v>
+        <v>1010.90933802775</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>85.14855202899997</v>
       </c>
       <c r="Z10" t="n">
-        <v>30.01639603899999</v>
+        <v>9.341837542749998</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>968.6413517687498</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.61434754225</v>
+        <v>807.3797954979998</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,28 +5721,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>77.18160484815</v>
+        <v>62.038378580475</v>
       </c>
       <c r="V11" t="n">
-        <v>209.237051117875</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>447.4579116513</v>
+        <v>962.6532655322</v>
       </c>
       <c r="X11" t="n">
-        <v>856.6506816584749</v>
+        <v>1210.48111907415</v>
       </c>
       <c r="Y11" t="n">
-        <v>133.358089389525</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>40.219106323825</v>
+        <v>1.791134289725</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>695.7742563631749</v>
       </c>
       <c r="AB11" t="n">
-        <v>349.1083561064</v>
+        <v>781.423041490025</v>
       </c>
     </row>
   </sheetData>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58935.6</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1503</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15096.6</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11424.6</v>
+        <v>45698.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29467.8</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88403.40000000001</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6012</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82998</v>
+        <v>33199.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45289.8</v>
+        <v>60386.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58935.6</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3177</v>
+        <v>2541.6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8346.6</v>
+        <v>16693.2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>783</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2642.4</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20109.6</v>
+        <v>15082.2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6397.2</v>
+        <v>25588.8</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>18739</v>
+        <v>14905</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>14.94</v>
+        <v>104.6189032199504</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>27742</v>
+        <v>23568</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>15.03</v>
+        <v>93.43829688350797</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1511</v>
+        <v>886</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.78</v>
+        <v>17.79596368544364</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>16445</v>
+        <v>9443</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>5.61</v>
+        <v>204.2884775509906</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1521</v>
+        <v>1184</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.76</v>
+        <v>18.83912914183118</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10186</v>
+        <v>9047</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>5.44</v>
+        <v>131.7713640542816</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>21818</v>
+        <v>22835</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>13.22</v>
+        <v>12.50347451956981</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>30098</v>
+        <v>14857</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>13.31</v>
+        <v>17.41588672402745</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>21323</v>
+        <v>15558</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>14.9</v>
+        <v>16.93615597023637</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>30021</v>
+        <v>15676</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>15.04</v>
+        <v>10.99915578133048</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>24096</v>
+        <v>21873</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>11.55</v>
+        <v>9.951461582256378</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>30535</v>
+        <v>15328</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>15.32</v>
+        <v>15.29622600982332</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1187</v>
+        <v>754</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.78</v>
+        <v>0.7141931860961133</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>15902</v>
+        <v>7533</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>8.539999999999999</v>
+        <v>99.27869598482398</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>15559</v>
+        <v>6472</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>7.98</v>
+        <v>6.178914319450652</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>17391</v>
+        <v>19529</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>11.06090494594345</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1585</v>
+        <v>1082</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>0.849633753117996</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>9971</v>
+        <v>6457</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>4.7</v>
+        <v>101.4914228244519</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>8096</v>
+        <v>6197</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>5.51</v>
+        <v>3.987517487277144</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>649</v>
+        <v>283</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>9.008496206887003</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>535</v>
+        <v>639</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.46</v>
+        <v>9.960175651188266</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5277</v>
+        <v>5335</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>2.71</v>
+        <v>84.34169075827134</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>8173</v>
+        <v>3595</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>4.05</v>
+        <v>124.3141155017923</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.34</v>
+        <v>12.27350773197655</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>708</v>
+        <v>438</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.27</v>
+        <v>7.839636731754665</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3582</v>
+        <v>3992</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>2.14</v>
+        <v>63.95031304110911</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>4344</v>
+        <v>2982</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>2.46</v>
+        <v>111.5516580345094</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3988,25 +3988,25 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>933</v>
+        <v>650</v>
       </c>
       <c r="W2" t="n">
-        <v>1402</v>
+        <v>3766</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>2551</v>
       </c>
       <c r="Y2" t="n">
-        <v>473</v>
+        <v>145</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>5964</v>
+        <v>5780</v>
       </c>
       <c r="AB2" t="n">
-        <v>9208</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4071,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>392</v>
+        <v>714</v>
       </c>
       <c r="V3" t="n">
-        <v>132</v>
+        <v>528</v>
       </c>
       <c r="W3" t="n">
-        <v>5133</v>
+        <v>6452</v>
       </c>
       <c r="X3" t="n">
-        <v>10163</v>
+        <v>3976</v>
       </c>
       <c r="Y3" t="n">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="Z3" t="n">
-        <v>265</v>
+        <v>1022</v>
       </c>
       <c r="AA3" t="n">
-        <v>7156</v>
+        <v>2529</v>
       </c>
       <c r="AB3" t="n">
-        <v>3889</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1021</v>
+        <v>127</v>
       </c>
       <c r="V4" t="n">
-        <v>203</v>
+        <v>422</v>
       </c>
       <c r="W4" t="n">
-        <v>7284</v>
+        <v>6556</v>
       </c>
       <c r="X4" t="n">
-        <v>5562</v>
+        <v>2035</v>
       </c>
       <c r="Y4" t="n">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>408</v>
+        <v>640</v>
       </c>
       <c r="AA4" t="n">
-        <v>928</v>
+        <v>6087</v>
       </c>
       <c r="AB4" t="n">
-        <v>4316</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>821</v>
+        <v>524</v>
       </c>
       <c r="V5" t="n">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>599</v>
+        <v>6613</v>
       </c>
       <c r="X5" t="n">
-        <v>9407</v>
+        <v>10718</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>619</v>
+        <v>241</v>
       </c>
       <c r="AA5" t="n">
-        <v>2351</v>
+        <v>1867</v>
       </c>
       <c r="AB5" t="n">
-        <v>3566</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>338</v>
+        <v>449</v>
       </c>
       <c r="V6" t="n">
-        <v>241</v>
+        <v>577</v>
       </c>
       <c r="W6" t="n">
-        <v>8418</v>
+        <v>5131</v>
       </c>
       <c r="X6" t="n">
-        <v>2630</v>
+        <v>5655</v>
       </c>
       <c r="Y6" t="n">
-        <v>761</v>
+        <v>429</v>
       </c>
       <c r="Z6" t="n">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="AA6" t="n">
-        <v>2180</v>
+        <v>769</v>
       </c>
       <c r="AB6" t="n">
-        <v>2231</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="W7" t="n">
-        <v>5140</v>
+        <v>3971</v>
       </c>
       <c r="X7" t="n">
-        <v>14219</v>
+        <v>5520</v>
       </c>
       <c r="Y7" t="n">
-        <v>279</v>
+        <v>530</v>
       </c>
       <c r="Z7" t="n">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AA7" t="n">
-        <v>2139</v>
+        <v>1839</v>
       </c>
       <c r="AB7" t="n">
-        <v>11415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>996</v>
+        <v>652</v>
       </c>
       <c r="V8" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7611</v>
+        <v>394</v>
       </c>
       <c r="X8" t="n">
-        <v>3385</v>
+        <v>5895</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="Z8" t="n">
-        <v>611</v>
+        <v>149</v>
       </c>
       <c r="AA8" t="n">
-        <v>4379</v>
+        <v>5638</v>
       </c>
       <c r="AB8" t="n">
-        <v>3242</v>
+        <v>8618</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,28 +4587,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="V9" t="n">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="W9" t="n">
-        <v>3957</v>
+        <v>6300</v>
       </c>
       <c r="X9" t="n">
-        <v>2941</v>
+        <v>4991</v>
       </c>
       <c r="Y9" t="n">
-        <v>608</v>
+        <v>58</v>
       </c>
       <c r="Z9" t="n">
-        <v>124</v>
+        <v>1226</v>
       </c>
       <c r="AA9" t="n">
-        <v>6257</v>
+        <v>4896</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>720</v>
+        <v>594</v>
       </c>
       <c r="V10" t="n">
-        <v>483</v>
+        <v>1377</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4654</v>
       </c>
       <c r="X10" t="n">
-        <v>6601</v>
+        <v>12816</v>
       </c>
       <c r="Y10" t="n">
-        <v>556</v>
+        <v>407</v>
       </c>
       <c r="Z10" t="n">
-        <v>61</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>6325</v>
+        <v>5029</v>
       </c>
       <c r="AB10" t="n">
-        <v>5272</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="W11" t="n">
-        <v>5912</v>
+        <v>6716</v>
       </c>
       <c r="X11" t="n">
-        <v>7434</v>
+        <v>3402</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>4273</v>
+        <v>3122</v>
       </c>
       <c r="AB11" t="n">
-        <v>4799</v>
+        <v>1601</v>
       </c>
     </row>
   </sheetData>
@@ -4950,25 +4950,25 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>23.325</v>
+        <v>16.25</v>
       </c>
       <c r="W2" t="n">
-        <v>35.04999999999999</v>
+        <v>94.14999999999998</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>63.77499999999998</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.825</v>
+        <v>3.624999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.1</v>
+        <v>144.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.2</v>
+        <v>180.0249999999999</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5033,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>18.61999999999999</v>
+        <v>33.91499999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>6.269999999999998</v>
+        <v>25.07999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>243.8174999999999</v>
+        <v>306.4699999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>482.7424999999998</v>
+        <v>188.86</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.6625</v>
+        <v>14.06</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5875</v>
+        <v>48.54499999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.9099999999999</v>
+        <v>120.1275</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.7274999999999</v>
+        <v>227.9999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>69.17274999999998</v>
+        <v>8.604249999999997</v>
       </c>
       <c r="V4" t="n">
-        <v>13.75325</v>
+        <v>28.59049999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>493.4909999999998</v>
+        <v>444.1689999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>376.8254999999999</v>
+        <v>137.8712499999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.95599999999997</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>27.64199999999999</v>
+        <v>43.35999999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.87199999999998</v>
+        <v>412.3942499999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.4089999999999</v>
+        <v>455.3477499999998</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>70.585475</v>
+        <v>45.0509</v>
       </c>
       <c r="V5" t="n">
-        <v>42.6436</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>51.499025</v>
+        <v>568.552675</v>
       </c>
       <c r="X5" t="n">
-        <v>808.7668249999999</v>
+        <v>921.48005</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>53.218525</v>
+        <v>20.719975</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.127225</v>
+        <v>160.515325</v>
       </c>
       <c r="AB5" t="n">
-        <v>306.58685</v>
+        <v>503.1257</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>34.60359499999999</v>
+        <v>45.96749749999999</v>
       </c>
       <c r="V6" t="n">
-        <v>24.67297749999999</v>
+        <v>59.07181749999999</v>
       </c>
       <c r="W6" t="n">
-        <v>861.8137949999998</v>
+        <v>525.2989524999999</v>
       </c>
       <c r="X6" t="n">
-        <v>269.252825</v>
+        <v>578.9447624999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>77.90927749999999</v>
+        <v>43.91994749999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>42.17952999999999</v>
+        <v>34.70597249999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>223.1829499999999</v>
+        <v>78.72829749999998</v>
       </c>
       <c r="AB6" t="n">
-        <v>228.4042025</v>
+        <v>447.6968074999999</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +5377,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3.9827515</v>
+        <v>70.28384999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>89.49476899999999</v>
       </c>
       <c r="W7" t="n">
-        <v>602.098315</v>
+        <v>465.16194725</v>
       </c>
       <c r="X7" t="n">
-        <v>1665.61010525</v>
+        <v>646.61142</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.68199025</v>
+        <v>62.0840675</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.73373575</v>
+        <v>24.1307885</v>
       </c>
       <c r="AA7" t="n">
-        <v>250.56192525</v>
+        <v>215.42000025</v>
       </c>
       <c r="AB7" t="n">
-        <v>1337.15024625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +5463,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>129.9040719</v>
+        <v>85.03760529999998</v>
       </c>
       <c r="V8" t="n">
-        <v>23.86791682499999</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>992.6705735249998</v>
+        <v>51.38775534999998</v>
       </c>
       <c r="X8" t="n">
-        <v>441.4912483749999</v>
+        <v>768.8599436249998</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>103.427639575</v>
       </c>
       <c r="Z8" t="n">
-        <v>79.69014852499998</v>
+        <v>19.43344047499999</v>
       </c>
       <c r="AA8" t="n">
-        <v>571.1344687249998</v>
+        <v>735.3405194499998</v>
       </c>
       <c r="AB8" t="n">
-        <v>422.8403625499999</v>
+        <v>1124.00932895</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5549,28 +5549,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>128.8567937375</v>
       </c>
       <c r="V9" t="n">
-        <v>37.7315473375</v>
+        <v>23.35084439</v>
       </c>
       <c r="W9" t="n">
-        <v>563.4103125075</v>
+        <v>897.0141442499998</v>
       </c>
       <c r="X9" t="n">
-        <v>418.7489838474999</v>
+        <v>710.6345387224999</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.56898407999998</v>
+        <v>8.258225454999998</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.65551649</v>
+        <v>174.561800135</v>
       </c>
       <c r="AA9" t="n">
-        <v>890.8916667574998</v>
+        <v>697.1081349599999</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>601.7113926349999</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5635,28 +5635,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>110.26431198</v>
+        <v>90.96805738349998</v>
       </c>
       <c r="V10" t="n">
-        <v>73.96897595324998</v>
+        <v>210.88049666175</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>712.7362610484998</v>
       </c>
       <c r="X10" t="n">
-        <v>1010.90933802775</v>
+        <v>1962.704753243999</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.14855202899997</v>
+        <v>62.32996524424998</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.341837542749998</v>
+        <v>111.7957607575</v>
       </c>
       <c r="AA10" t="n">
-        <v>968.6413517687498</v>
+        <v>770.1655902047498</v>
       </c>
       <c r="AB10" t="n">
-        <v>807.3797954979998</v>
+        <v>746.1218443979998</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,28 +5721,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>62.038378580475</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>180.904563262225</v>
       </c>
       <c r="W11" t="n">
-        <v>962.6532655322</v>
+        <v>1093.5688990721</v>
       </c>
       <c r="X11" t="n">
-        <v>1210.48111907415</v>
+        <v>553.94898669495</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.791134289725</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>695.7742563631749</v>
+        <v>508.3564775019499</v>
       </c>
       <c r="AB11" t="n">
-        <v>781.423041490025</v>
+        <v>260.691454349975</v>
       </c>
     </row>
   </sheetData>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58935.6</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4509</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45289.8</v>
+        <v>75483</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2887.2</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45698.4</v>
+        <v>11424.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>117871.2</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>33199.2</v>
+        <v>82998</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60386.4</v>
+        <v>15096.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4330.8</v>
+        <v>2887.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>64341</v>
+        <v>38604.6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57123</v>
+        <v>11424.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>33750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2349</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3303</v>
+        <v>660.6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15082.2</v>
+        <v>5027.400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25588.8</v>
+        <v>19191.6</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14905</v>
+        <v>16187</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>104.6189032199504</v>
+        <v>7.893844907423294</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>23568</v>
+        <v>17207</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>93.43829688350797</v>
+        <v>5.859236472560737</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>17.79596368544364</v>
+        <v>1.304207188052601</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9443</v>
+        <v>6665</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>204.2884775509906</v>
+        <v>10.96507158978399</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1184</v>
+        <v>883</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>18.83912914183118</v>
+        <v>1.392326755388741</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9047</v>
+        <v>6495</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>131.7713640542816</v>
+        <v>10.37915774692319</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>22835</v>
+        <v>16633</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>12.50347451956981</v>
+        <v>0.6316632347637763</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>14857</v>
+        <v>19997</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>17.41588672402745</v>
+        <v>0.9759367150432869</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>15558</v>
+        <v>14183</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>16.93615597023637</v>
+        <v>0.9677716730111683</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>15676</v>
+        <v>18904</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>10.99915578133048</v>
+        <v>0.6568163809917287</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>21873</v>
+        <v>15482</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>9.951461582256378</v>
+        <v>0.7880166341967683</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>15328</v>
+        <v>22641</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>15.29622600982332</v>
+        <v>1.132598926156059</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>754</v>
+        <v>1178</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7141931860961133</v>
+        <v>0.03580584062032748</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>7533</v>
+        <v>8227</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>99.27869598482398</v>
+        <v>7.61475111789254</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>6472</v>
+        <v>9685</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>6.178914319450652</v>
+        <v>0.3648749589396752</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>19529</v>
+        <v>19703</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>11.06090494594345</v>
+        <v>0.5780094743579327</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1082</v>
+        <v>674</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.849633753117996</v>
+        <v>0.0414302596876443</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6457</v>
+        <v>7466</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>101.4914228244519</v>
+        <v>7.446581996160985</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6197</v>
+        <v>9318</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>3.987517487277144</v>
+        <v>0.2589963834333897</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3603,7 +3603,7 @@
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>9.008496206887003</v>
+        <v>0.6162077113458738</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>9.960175651188266</v>
+        <v>0.6596620199409751</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5335</v>
+        <v>4045</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>84.34169075827134</v>
+        <v>5.797145661419687</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>3595</v>
+        <v>5245</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>124.3141155017923</v>
+        <v>6.352177126390029</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>12.27350773197655</v>
+        <v>0.6237169549485583</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>7.839636731754665</v>
+        <v>0.6044809743363366</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3992</v>
+        <v>2713</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>63.95031304110911</v>
+        <v>3.930832197580707</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2982</v>
+        <v>2830</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>111.5516580345094</v>
+        <v>6.945594205670697</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3985,28 +3985,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="V2" t="n">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="W2" t="n">
-        <v>3766</v>
+        <v>6176</v>
       </c>
       <c r="X2" t="n">
-        <v>2551</v>
+        <v>6637</v>
       </c>
       <c r="Y2" t="n">
-        <v>145</v>
+        <v>535</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="AA2" t="n">
-        <v>5780</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>7201</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4071,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>714</v>
+        <v>565</v>
       </c>
       <c r="V3" t="n">
-        <v>528</v>
+        <v>466</v>
       </c>
       <c r="W3" t="n">
-        <v>6452</v>
+        <v>2483</v>
       </c>
       <c r="X3" t="n">
-        <v>3976</v>
+        <v>10520</v>
       </c>
       <c r="Y3" t="n">
-        <v>296</v>
+        <v>630</v>
       </c>
       <c r="Z3" t="n">
-        <v>1022</v>
+        <v>460</v>
       </c>
       <c r="AA3" t="n">
-        <v>2529</v>
+        <v>2466</v>
       </c>
       <c r="AB3" t="n">
-        <v>4800</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>127</v>
+        <v>300</v>
       </c>
       <c r="V4" t="n">
-        <v>422</v>
+        <v>216</v>
       </c>
       <c r="W4" t="n">
-        <v>6556</v>
+        <v>4678</v>
       </c>
       <c r="X4" t="n">
-        <v>2035</v>
+        <v>7997</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="Z4" t="n">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>6087</v>
+        <v>3704</v>
       </c>
       <c r="AB4" t="n">
-        <v>6721</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>524</v>
+        <v>57</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="W5" t="n">
-        <v>6613</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>10718</v>
+        <v>2673</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="Z5" t="n">
-        <v>241</v>
+        <v>675</v>
       </c>
       <c r="AA5" t="n">
-        <v>1867</v>
+        <v>2065</v>
       </c>
       <c r="AB5" t="n">
-        <v>5852</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>577</v>
+        <v>626</v>
       </c>
       <c r="W6" t="n">
-        <v>5131</v>
+        <v>2257</v>
       </c>
       <c r="X6" t="n">
-        <v>5655</v>
+        <v>2197</v>
       </c>
       <c r="Y6" t="n">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="Z6" t="n">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="AA6" t="n">
-        <v>769</v>
+        <v>1522</v>
       </c>
       <c r="AB6" t="n">
-        <v>4373</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="V7" t="n">
-        <v>764</v>
+        <v>395</v>
       </c>
       <c r="W7" t="n">
-        <v>3971</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>5520</v>
+        <v>7258</v>
       </c>
       <c r="Y7" t="n">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="Z7" t="n">
-        <v>206</v>
+        <v>491</v>
       </c>
       <c r="AA7" t="n">
-        <v>1839</v>
+        <v>3996</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>652</v>
+        <v>102</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>394</v>
+        <v>2810</v>
       </c>
       <c r="X8" t="n">
-        <v>5895</v>
+        <v>4115</v>
       </c>
       <c r="Y8" t="n">
-        <v>793</v>
+        <v>255</v>
       </c>
       <c r="Z8" t="n">
-        <v>149</v>
+        <v>1076</v>
       </c>
       <c r="AA8" t="n">
-        <v>5638</v>
+        <v>2208</v>
       </c>
       <c r="AB8" t="n">
-        <v>8618</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,28 +4587,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>905</v>
+        <v>986</v>
       </c>
       <c r="V9" t="n">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="W9" t="n">
-        <v>6300</v>
+        <v>2209</v>
       </c>
       <c r="X9" t="n">
-        <v>4991</v>
+        <v>2379</v>
       </c>
       <c r="Y9" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1226</v>
+        <v>840</v>
       </c>
       <c r="AA9" t="n">
-        <v>4896</v>
+        <v>3484</v>
       </c>
       <c r="AB9" t="n">
-        <v>4226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1377</v>
+        <v>385</v>
       </c>
       <c r="W10" t="n">
-        <v>4654</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12816</v>
+        <v>2791</v>
       </c>
       <c r="Y10" t="n">
-        <v>407</v>
+        <v>302</v>
       </c>
       <c r="Z10" t="n">
-        <v>730</v>
+        <v>841</v>
       </c>
       <c r="AA10" t="n">
-        <v>5029</v>
+        <v>2779</v>
       </c>
       <c r="AB10" t="n">
-        <v>4872</v>
+        <v>11871</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="V11" t="n">
-        <v>1111</v>
+        <v>319</v>
       </c>
       <c r="W11" t="n">
-        <v>6716</v>
+        <v>4223</v>
       </c>
       <c r="X11" t="n">
-        <v>3402</v>
+        <v>2872</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="AA11" t="n">
-        <v>3122</v>
+        <v>2648</v>
       </c>
       <c r="AB11" t="n">
-        <v>1601</v>
+        <v>7413</v>
       </c>
     </row>
   </sheetData>
@@ -4947,28 +4947,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>9.299999999999997</v>
       </c>
       <c r="V2" t="n">
-        <v>16.25</v>
+        <v>17.175</v>
       </c>
       <c r="W2" t="n">
-        <v>94.14999999999998</v>
+        <v>154.4</v>
       </c>
       <c r="X2" t="n">
-        <v>63.77499999999998</v>
+        <v>165.925</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.624999999999999</v>
+        <v>13.375</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>10.55</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.5</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.0249999999999</v>
+        <v>43.34999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5033,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.91499999999999</v>
+        <v>26.83749999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>25.07999999999999</v>
+        <v>22.13499999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>306.4699999999999</v>
+        <v>117.9425</v>
       </c>
       <c r="X3" t="n">
-        <v>188.86</v>
+        <v>499.6999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.06</v>
+        <v>29.92499999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>48.54499999999999</v>
+        <v>21.84999999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.1275</v>
+        <v>117.135</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.9999999999999</v>
+        <v>160.1224999999999</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>8.604249999999997</v>
+        <v>20.32499999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>28.59049999999999</v>
+        <v>14.634</v>
       </c>
       <c r="W4" t="n">
-        <v>444.1689999999999</v>
+        <v>316.9344999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>137.8712499999999</v>
+        <v>541.7967499999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>57.18099999999998</v>
       </c>
       <c r="Z4" t="n">
-        <v>43.35999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>412.3942499999999</v>
+        <v>250.9459999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.3477499999998</v>
+        <v>36.78824999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>45.0509</v>
+        <v>4.900575</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>42.385675</v>
       </c>
       <c r="W5" t="n">
-        <v>568.552675</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>921.48005</v>
+        <v>229.811175</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>35.679625</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.719975</v>
+        <v>58.033125</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.515325</v>
+        <v>177.538375</v>
       </c>
       <c r="AB5" t="n">
-        <v>503.1257</v>
+        <v>529.43405</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>45.96749749999999</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>59.07181749999999</v>
+        <v>64.08831499999999</v>
       </c>
       <c r="W6" t="n">
-        <v>525.2989524999999</v>
+        <v>231.0660175</v>
       </c>
       <c r="X6" t="n">
-        <v>578.9447624999999</v>
+        <v>224.9233675</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.91994749999999</v>
+        <v>34.80835</v>
       </c>
       <c r="Z6" t="n">
-        <v>34.70597249999999</v>
+        <v>44.84134499999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.72829749999998</v>
+        <v>155.818555</v>
       </c>
       <c r="AB6" t="n">
-        <v>447.6968074999999</v>
+        <v>467.8651749999999</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +5377,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>70.28384999999999</v>
+        <v>77.78079399999999</v>
       </c>
       <c r="V7" t="n">
-        <v>89.49476899999999</v>
+        <v>46.27020124999999</v>
       </c>
       <c r="W7" t="n">
-        <v>465.16194725</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>646.61142</v>
+        <v>850.2003054999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.0840675</v>
+        <v>70.63526924999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.1307885</v>
+        <v>57.51561724999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>215.42000025</v>
+        <v>468.0904409999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>903.6160314999998</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +5463,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>85.03760529999998</v>
+        <v>13.30342905</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>51.38775534999998</v>
+        <v>366.4964277499999</v>
       </c>
       <c r="X8" t="n">
-        <v>768.8599436249998</v>
+        <v>536.7020641249999</v>
       </c>
       <c r="Y8" t="n">
-        <v>103.427639575</v>
+        <v>33.25857262499999</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.43344047499999</v>
+        <v>140.3381339</v>
       </c>
       <c r="AA8" t="n">
-        <v>735.3405194499998</v>
+        <v>287.9801111999999</v>
       </c>
       <c r="AB8" t="n">
-        <v>1124.00932895</v>
+        <v>415.4060933749999</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5549,28 +5549,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>128.8567937375</v>
+        <v>140.389832735</v>
       </c>
       <c r="V9" t="n">
-        <v>23.35084439</v>
+        <v>37.16201454749999</v>
       </c>
       <c r="W9" t="n">
-        <v>897.0141442499998</v>
+        <v>314.5244832774999</v>
       </c>
       <c r="X9" t="n">
-        <v>710.6345387224999</v>
+        <v>338.7296268525</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.258225454999998</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>174.561800135</v>
+        <v>119.6018859</v>
       </c>
       <c r="AA9" t="n">
-        <v>697.1081349599999</v>
+        <v>496.0630600899999</v>
       </c>
       <c r="AB9" t="n">
-        <v>601.7113926349999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5635,28 +5635,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.96805738349998</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.88049666175</v>
+        <v>58.96077793374999</v>
       </c>
       <c r="W10" t="n">
-        <v>712.7362610484998</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1962.704753243999</v>
+        <v>427.4273538002499</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.32996524424998</v>
+        <v>46.24975308049999</v>
       </c>
       <c r="Z10" t="n">
-        <v>111.7957607575</v>
+        <v>128.79484218775</v>
       </c>
       <c r="AA10" t="n">
-        <v>770.1655902047498</v>
+        <v>425.5896152672499</v>
       </c>
       <c r="AB10" t="n">
-        <v>746.1218443979998</v>
+        <v>1817.982843770249</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,28 +5721,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.12961955695</v>
       </c>
       <c r="V11" t="n">
-        <v>180.904563262225</v>
+        <v>51.942894402025</v>
       </c>
       <c r="W11" t="n">
-        <v>1093.5688990721</v>
+        <v>687.6327368644249</v>
       </c>
       <c r="X11" t="n">
-        <v>553.94898669495</v>
+        <v>467.6488800082</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>32.403247605025</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>120.16882780155</v>
       </c>
       <c r="AA11" t="n">
-        <v>508.3564775019499</v>
+        <v>431.1748726538</v>
       </c>
       <c r="AB11" t="n">
-        <v>260.691454349975</v>
+        <v>1207.061680884675</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3006</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75483</v>
+        <v>60386.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7218</v>
+        <v>1443.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11424.6</v>
+        <v>57123</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>117871.2</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29467.8</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>58935.6</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29467.8</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>58935.6</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29467.8</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1503</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82998</v>
+        <v>49798.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15096.6</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58935.6</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11424.6</v>
+        <v>57123</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2541.6</v>
+        <v>635.4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3470.4</v>
+        <v>867.6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33750</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16693.2</v>
+        <v>8346.6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5027.400000000001</v>
+        <v>20109.6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19191.6</v>
+        <v>25588.8</v>
       </c>
     </row>
   </sheetData>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16187</v>
+        <v>29192</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>7.893844907423294</v>
+        <v>62.96695249396292</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>17207</v>
+        <v>29192</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>5.859236472560737</v>
+        <v>43.43392955353122</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>871</v>
+        <v>1711</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>1.304207188052601</v>
+        <v>7.791060492156411</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>6665</v>
+        <v>14209</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>10.96507158978399</v>
+        <v>77.49990810082626</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>883</v>
+        <v>1658</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>1.392326755388741</v>
+        <v>9.476666771946737</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6495</v>
+        <v>11612</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>10.37915774692319</v>
+        <v>81.1541749989361</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>16633</v>
+        <v>29192</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6316632347637763</v>
+        <v>4.219386785782607</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>19997</v>
+        <v>29192</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9759367150432869</v>
+        <v>9.436071429719954</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>14183</v>
+        <v>29192</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9677716730111683</v>
+        <v>8.720283040739201</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>18904</v>
+        <v>29192</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6568163809917287</v>
+        <v>4.512048820486359</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>15482</v>
+        <v>29192</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7880166341967683</v>
+        <v>5.144481095331376</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>22641</v>
+        <v>29192</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>1.132598926156059</v>
+        <v>9.298346365096869</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1178</v>
+        <v>1711</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03580584062032748</v>
+        <v>0.3222034229972543</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>8227</v>
+        <v>15920</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>7.61475111789254</v>
+        <v>51.31396649495166</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>9685</v>
+        <v>14209</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3648749589396752</v>
+        <v>3.26212620245635</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>19703</v>
+        <v>29192</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5780094743579327</v>
+        <v>5.732126482454993</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>674</v>
+        <v>1658</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0414302596876443</v>
+        <v>0.4490615182829325</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7466</v>
+        <v>13271</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>7.446581996160985</v>
+        <v>42.36689386130386</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>9318</v>
+        <v>11612</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2589963834333897</v>
+        <v>2.591374805638091</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>283</v>
+        <v>763</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6162077113458738</v>
+        <v>4.045314910538218</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>564</v>
+        <v>948</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6596620199409751</v>
+        <v>6.805399302648047</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4045</v>
+        <v>6417</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>5.797145661419687</v>
+        <v>40.6431219245607</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>5245</v>
+        <v>7791</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>6.352177126390029</v>
+        <v>49.97104298295512</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>576</v>
+        <v>910</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6237169549485583</v>
+        <v>4.659427998952104</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>381</v>
+        <v>748</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6044809743363366</v>
+        <v>3.907431819759283</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2713</v>
+        <v>4916</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>3.930832197580707</v>
+        <v>42.3396524880253</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2830</v>
+        <v>6696</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>6.945594205670697</v>
+        <v>49.86997824548104</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3985,28 +3985,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="V2" t="n">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6176</v>
+        <v>3740</v>
       </c>
       <c r="X2" t="n">
-        <v>6637</v>
+        <v>6426</v>
       </c>
       <c r="Y2" t="n">
-        <v>535</v>
+        <v>334</v>
       </c>
       <c r="Z2" t="n">
-        <v>422</v>
+        <v>655</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>6509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1734</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4071,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="V3" t="n">
-        <v>466</v>
+        <v>613</v>
       </c>
       <c r="W3" t="n">
-        <v>2483</v>
+        <v>4337</v>
       </c>
       <c r="X3" t="n">
-        <v>10520</v>
+        <v>7696</v>
       </c>
       <c r="Y3" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="Z3" t="n">
-        <v>460</v>
+        <v>706</v>
       </c>
       <c r="AA3" t="n">
-        <v>2466</v>
+        <v>3298</v>
       </c>
       <c r="AB3" t="n">
-        <v>3371</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="V4" t="n">
-        <v>216</v>
+        <v>866</v>
       </c>
       <c r="W4" t="n">
-        <v>4678</v>
+        <v>8375</v>
       </c>
       <c r="X4" t="n">
-        <v>7997</v>
+        <v>9305</v>
       </c>
       <c r="Y4" t="n">
-        <v>844</v>
+        <v>215</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>3704</v>
+        <v>3549</v>
       </c>
       <c r="AB4" t="n">
-        <v>543</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>57</v>
+        <v>559</v>
       </c>
       <c r="V5" t="n">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3145</v>
       </c>
       <c r="X5" t="n">
-        <v>2673</v>
+        <v>966</v>
       </c>
       <c r="Y5" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>675</v>
+        <v>198</v>
       </c>
       <c r="AA5" t="n">
-        <v>2065</v>
+        <v>2297</v>
       </c>
       <c r="AB5" t="n">
-        <v>6158</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="V6" t="n">
-        <v>626</v>
+        <v>687</v>
       </c>
       <c r="W6" t="n">
-        <v>2257</v>
+        <v>4077</v>
       </c>
       <c r="X6" t="n">
-        <v>2197</v>
+        <v>6407</v>
       </c>
       <c r="Y6" t="n">
-        <v>340</v>
+        <v>428</v>
       </c>
       <c r="Z6" t="n">
-        <v>438</v>
+        <v>535</v>
       </c>
       <c r="AA6" t="n">
-        <v>1522</v>
+        <v>5978</v>
       </c>
       <c r="AB6" t="n">
-        <v>4570</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>664</v>
+        <v>1018</v>
       </c>
       <c r="V7" t="n">
-        <v>395</v>
+        <v>262</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="X7" t="n">
-        <v>7258</v>
+        <v>7077</v>
       </c>
       <c r="Y7" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="Z7" t="n">
-        <v>491</v>
+        <v>909</v>
       </c>
       <c r="AA7" t="n">
-        <v>3996</v>
+        <v>1438</v>
       </c>
       <c r="AB7" t="n">
-        <v>7714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="W8" t="n">
-        <v>2810</v>
+        <v>3534</v>
       </c>
       <c r="X8" t="n">
-        <v>4115</v>
+        <v>6978</v>
       </c>
       <c r="Y8" t="n">
-        <v>255</v>
+        <v>965</v>
       </c>
       <c r="Z8" t="n">
-        <v>1076</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>2208</v>
+        <v>365</v>
       </c>
       <c r="AB8" t="n">
-        <v>3185</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,28 +4587,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>986</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>261</v>
+        <v>1339</v>
       </c>
       <c r="W9" t="n">
-        <v>2209</v>
+        <v>971</v>
       </c>
       <c r="X9" t="n">
-        <v>2379</v>
+        <v>3872</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="Z9" t="n">
-        <v>840</v>
+        <v>317</v>
       </c>
       <c r="AA9" t="n">
-        <v>3484</v>
+        <v>2671</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="V10" t="n">
-        <v>385</v>
+        <v>117</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2785</v>
       </c>
       <c r="X10" t="n">
-        <v>2791</v>
+        <v>9196</v>
       </c>
       <c r="Y10" t="n">
-        <v>302</v>
+        <v>592</v>
       </c>
       <c r="Z10" t="n">
-        <v>841</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>2779</v>
+        <v>1671</v>
       </c>
       <c r="AB10" t="n">
-        <v>11871</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>922</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>319</v>
+        <v>667</v>
       </c>
       <c r="W11" t="n">
-        <v>4223</v>
+        <v>426</v>
       </c>
       <c r="X11" t="n">
-        <v>2872</v>
+        <v>3876</v>
       </c>
       <c r="Y11" t="n">
-        <v>199</v>
+        <v>984</v>
       </c>
       <c r="Z11" t="n">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="AA11" t="n">
-        <v>2648</v>
+        <v>1540</v>
       </c>
       <c r="AB11" t="n">
-        <v>7413</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4947,28 +4947,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>9.299999999999997</v>
+        <v>9.474999999999998</v>
       </c>
       <c r="V2" t="n">
-        <v>17.175</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>154.4</v>
+        <v>93.49999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>165.925</v>
+        <v>160.65</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.375</v>
+        <v>8.349999999999998</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.55</v>
+        <v>16.375</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>162.725</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.34999999999999</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5033,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>26.83749999999999</v>
+        <v>29.30749999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>22.13499999999999</v>
+        <v>29.11749999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>117.9425</v>
+        <v>206.0074999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>499.6999999999999</v>
+        <v>365.5599999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.92499999999999</v>
+        <v>30.06749999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.84999999999999</v>
+        <v>33.53499999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.135</v>
+        <v>156.6549999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.1224999999999</v>
+        <v>137.9875</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>20.32499999999999</v>
+        <v>33.73949999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>14.634</v>
+        <v>58.67149999999998</v>
       </c>
       <c r="W4" t="n">
-        <v>316.9344999999999</v>
+        <v>567.4062499999998</v>
       </c>
       <c r="X4" t="n">
-        <v>541.7967499999999</v>
+        <v>630.4137499999998</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.18099999999998</v>
+        <v>14.56624999999999</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.9459999999999</v>
+        <v>240.4447499999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>36.78824999999999</v>
+        <v>253.7914999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4.900575</v>
+        <v>48.060025</v>
       </c>
       <c r="V5" t="n">
-        <v>42.385675</v>
+        <v>45.73869999999999</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>270.391375</v>
       </c>
       <c r="X5" t="n">
-        <v>229.811175</v>
+        <v>83.05185</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.679625</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>58.033125</v>
+        <v>17.02305</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.538375</v>
+        <v>197.484575</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.43405</v>
+        <v>327.650725</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>16.8922875</v>
       </c>
       <c r="V6" t="n">
-        <v>64.08831499999999</v>
+        <v>70.33334249999999</v>
       </c>
       <c r="W6" t="n">
-        <v>231.0660175</v>
+        <v>417.3930674999999</v>
       </c>
       <c r="X6" t="n">
-        <v>224.9233675</v>
+        <v>655.9326424999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.80835</v>
+        <v>43.81756999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>44.84134499999999</v>
+        <v>54.77196249999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>155.818555</v>
+        <v>612.0126949999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>467.8651749999999</v>
+        <v>738.8584174999999</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +5377,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>77.78079399999999</v>
+        <v>119.2482655</v>
       </c>
       <c r="V7" t="n">
-        <v>46.27020124999999</v>
+        <v>30.6906145</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>101.56016325</v>
       </c>
       <c r="X7" t="n">
-        <v>850.2003054999999</v>
+        <v>828.9980107499999</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.63526924999999</v>
+        <v>70.28384999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>57.51561724999999</v>
+        <v>106.48003275</v>
       </c>
       <c r="AA7" t="n">
-        <v>468.0904409999999</v>
+        <v>168.4469605</v>
       </c>
       <c r="AB7" t="n">
-        <v>903.6160314999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +5463,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>13.30342905</v>
+        <v>14.86853835</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>31.82388909999999</v>
       </c>
       <c r="W8" t="n">
-        <v>366.4964277499999</v>
+        <v>460.9246888499999</v>
       </c>
       <c r="X8" t="n">
-        <v>536.7020641249999</v>
+        <v>910.1110579499998</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.25857262499999</v>
+        <v>125.860872875</v>
       </c>
       <c r="Z8" t="n">
-        <v>140.3381339</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>287.9801111999999</v>
+        <v>47.60540787499999</v>
       </c>
       <c r="AB8" t="n">
-        <v>415.4060933749999</v>
+        <v>1148.52937465</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5549,28 +5549,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>140.389832735</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>37.16201454749999</v>
+        <v>190.6511014525</v>
       </c>
       <c r="W9" t="n">
-        <v>314.5244832774999</v>
+        <v>138.2540847725</v>
       </c>
       <c r="X9" t="n">
-        <v>338.7296268525</v>
+        <v>551.3077407199999</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>59.94332614749999</v>
       </c>
       <c r="Z9" t="n">
-        <v>119.6018859</v>
+        <v>45.13547360749999</v>
       </c>
       <c r="AA9" t="n">
-        <v>496.0630600899999</v>
+        <v>380.3055205224999</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>346.4183195174999</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5635,28 +5635,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>66.61802182124998</v>
       </c>
       <c r="V10" t="n">
-        <v>58.96077793374999</v>
+        <v>17.91795069675</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>426.5084845337499</v>
       </c>
       <c r="X10" t="n">
-        <v>427.4273538002499</v>
+        <v>1408.320295789</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.24975308049999</v>
+        <v>90.66176762799998</v>
       </c>
       <c r="Z10" t="n">
-        <v>128.79484218775</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>425.5896152672499</v>
+        <v>255.9050907202499</v>
       </c>
       <c r="AB10" t="n">
-        <v>1817.982843770249</v>
+        <v>1264.0578209485</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,28 +5721,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150.12961955695</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>51.942894402025</v>
+        <v>108.607870113325</v>
       </c>
       <c r="W11" t="n">
-        <v>687.6327368644249</v>
+        <v>69.36574612935</v>
       </c>
       <c r="X11" t="n">
-        <v>467.6488800082</v>
+        <v>631.1305915431</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.403247605025</v>
+        <v>160.2251037354</v>
       </c>
       <c r="Z11" t="n">
-        <v>120.16882780155</v>
+        <v>123.588265991025</v>
       </c>
       <c r="AA11" t="n">
-        <v>431.1748726538</v>
+        <v>250.7588005615</v>
       </c>
       <c r="AB11" t="n">
-        <v>1207.061680884675</v>
+        <v>56.176484541375</v>
       </c>
     </row>
   </sheetData>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>147339</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88403.40000000001</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6012</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60386.4</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1443.6</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57123</v>
+        <v>34273.8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88403.40000000001</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>88403.40000000001</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49798.8</v>
+        <v>66398.40000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45289.8</v>
+        <v>60386.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>147339</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2887.2</v>
+        <v>1443.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38604.6</v>
+        <v>64341</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>635.4</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8346.6</v>
+        <v>41733</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3132</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>660.6</v>
+        <v>1981.8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20109.6</v>
+        <v>25137</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25588.8</v>
+        <v>19191.6</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>62.96695249396292</v>
+        <v>63.93123449999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>43.43392955353122</v>
+        <v>47.22116579999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>7.791060492156411</v>
+        <v>10.4096988</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>14209</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>77.49990810082626</v>
+        <v>82.86455249999999</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1658</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>9.476666771946737</v>
+        <v>8.510296049999997</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11612</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>81.1541749989361</v>
+        <v>100.30608</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>4.219386785782607</v>
+        <v>5.412168</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>9.436071429719954</v>
+        <v>8.388860399999999</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>8.720283040739201</v>
+        <v>8.118251999999998</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>4.512048820486359</v>
+        <v>5.7504285</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>5.144481095331376</v>
+        <v>5.6151243</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>9.298346365096869</v>
+        <v>8.0505999</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3222034229972543</v>
+        <v>0.3821094</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>15920</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>51.31396649495166</v>
+        <v>47.0328309</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>14209</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>3.26212620245635</v>
+        <v>3.1951377</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>5.732126482454993</v>
+        <v>5.6151243</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1658</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4490615182829325</v>
+        <v>0.3474148499999999</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>13271</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>42.36689386130386</v>
+        <v>61.2439164</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>11612</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>2.591374805638091</v>
+        <v>2.758417200000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>4.045314910538218</v>
+        <v>2.85494625</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>948</v>
+        <v>900</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>6.805399302648047</v>
+        <v>8.06729625</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>6417</v>
+        <v>10540</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6431219245607</v>
+        <v>40.14587744999999</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>7791</v>
+        <v>10470</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>49.97104298295512</v>
+        <v>48.76295175</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>910</v>
+        <v>737</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>4.659427998952104</v>
+        <v>5.18960925</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>748</v>
+        <v>592</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>3.907431819759283</v>
+        <v>3.6929232</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>4916</v>
+        <v>5969</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>42.3396524880253</v>
+        <v>39.15065655</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>6696</v>
+        <v>13840</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>49.86997824548104</v>
+        <v>66.90729960000002</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3985,28 +3985,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="W2" t="n">
-        <v>3740</v>
+        <v>5271</v>
       </c>
       <c r="X2" t="n">
-        <v>6426</v>
+        <v>3579</v>
       </c>
       <c r="Y2" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>655</v>
+        <v>125</v>
       </c>
       <c r="AA2" t="n">
-        <v>6509</v>
+        <v>4436</v>
       </c>
       <c r="AB2" t="n">
-        <v>562</v>
+        <v>8743</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4071,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4337</v>
+        <v>704</v>
       </c>
       <c r="X3" t="n">
-        <v>7696</v>
+        <v>5528</v>
       </c>
       <c r="Y3" t="n">
-        <v>633</v>
+        <v>99</v>
       </c>
       <c r="Z3" t="n">
-        <v>706</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>3298</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>2905</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>866</v>
+        <v>191</v>
       </c>
       <c r="W4" t="n">
-        <v>8375</v>
+        <v>4006</v>
       </c>
       <c r="X4" t="n">
-        <v>9305</v>
+        <v>839</v>
       </c>
       <c r="Y4" t="n">
-        <v>215</v>
+        <v>582</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="AA4" t="n">
-        <v>3549</v>
+        <v>1280</v>
       </c>
       <c r="AB4" t="n">
-        <v>3746</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="W5" t="n">
-        <v>3145</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>966</v>
+        <v>2403</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="Z5" t="n">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AA5" t="n">
-        <v>2297</v>
+        <v>6658</v>
       </c>
       <c r="AB5" t="n">
-        <v>3811</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="V6" t="n">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4077</v>
+        <v>7163</v>
       </c>
       <c r="X6" t="n">
-        <v>6407</v>
+        <v>1311</v>
       </c>
       <c r="Y6" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="AA6" t="n">
-        <v>5978</v>
+        <v>1260</v>
       </c>
       <c r="AB6" t="n">
-        <v>7217</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1018</v>
+        <v>305</v>
       </c>
       <c r="V7" t="n">
-        <v>262</v>
+        <v>558</v>
       </c>
       <c r="W7" t="n">
-        <v>867</v>
+        <v>4111</v>
       </c>
       <c r="X7" t="n">
-        <v>7077</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="n">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="Z7" t="n">
-        <v>909</v>
+        <v>96</v>
       </c>
       <c r="AA7" t="n">
-        <v>1438</v>
+        <v>1373</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>114</v>
+        <v>802</v>
       </c>
       <c r="V8" t="n">
-        <v>244</v>
+        <v>1206</v>
       </c>
       <c r="W8" t="n">
-        <v>3534</v>
+        <v>2049</v>
       </c>
       <c r="X8" t="n">
-        <v>6978</v>
+        <v>4844</v>
       </c>
       <c r="Y8" t="n">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="AA8" t="n">
-        <v>365</v>
+        <v>1687</v>
       </c>
       <c r="AB8" t="n">
-        <v>8806</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4590,25 +4590,25 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1339</v>
+        <v>118</v>
       </c>
       <c r="W9" t="n">
-        <v>971</v>
+        <v>1159</v>
       </c>
       <c r="X9" t="n">
-        <v>3872</v>
+        <v>6256</v>
       </c>
       <c r="Y9" t="n">
-        <v>421</v>
+        <v>512</v>
       </c>
       <c r="Z9" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>2671</v>
+        <v>2454</v>
       </c>
       <c r="AB9" t="n">
-        <v>2433</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117</v>
+        <v>1587</v>
       </c>
       <c r="W10" t="n">
-        <v>2785</v>
+        <v>140</v>
       </c>
       <c r="X10" t="n">
-        <v>9196</v>
+        <v>2713</v>
       </c>
       <c r="Y10" t="n">
-        <v>592</v>
+        <v>404</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="AA10" t="n">
-        <v>1671</v>
+        <v>2264</v>
       </c>
       <c r="AB10" t="n">
-        <v>8254</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="V11" t="n">
-        <v>667</v>
+        <v>1237</v>
       </c>
       <c r="W11" t="n">
-        <v>426</v>
+        <v>5814</v>
       </c>
       <c r="X11" t="n">
-        <v>3876</v>
+        <v>8380</v>
       </c>
       <c r="Y11" t="n">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="Z11" t="n">
-        <v>759</v>
+        <v>202</v>
       </c>
       <c r="AA11" t="n">
-        <v>1540</v>
+        <v>4489</v>
       </c>
       <c r="AB11" t="n">
-        <v>345</v>
+        <v>4035</v>
       </c>
     </row>
   </sheetData>
@@ -4947,28 +4947,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>9.474999999999998</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>16.775</v>
       </c>
       <c r="W2" t="n">
-        <v>93.49999999999999</v>
+        <v>131.775</v>
       </c>
       <c r="X2" t="n">
-        <v>160.65</v>
+        <v>89.47499999999998</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.349999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.375</v>
+        <v>3.124999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.725</v>
+        <v>110.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.05</v>
+        <v>218.575</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5033,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>29.30749999999999</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>29.11749999999999</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>206.0074999999999</v>
+        <v>33.43999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>365.5599999999999</v>
+        <v>262.5799999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.06749999999999</v>
+        <v>4.702499999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>33.53499999999999</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.6549999999999</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.9875</v>
+        <v>11.4475</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>33.73949999999999</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>58.67149999999998</v>
+        <v>12.94025</v>
       </c>
       <c r="W4" t="n">
-        <v>567.4062499999998</v>
+        <v>271.4064999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>630.4137499999998</v>
+        <v>56.84224999999998</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.56624999999999</v>
+        <v>39.43049999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>28.38724999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.4447499999999</v>
+        <v>86.71999999999997</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.7914999999999</v>
+        <v>284.3467499999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>48.060025</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>45.73869999999999</v>
+        <v>43.589325</v>
       </c>
       <c r="W5" t="n">
-        <v>270.391375</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>83.05185</v>
+        <v>206.597925</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.285775</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.02305</v>
+        <v>9.371274999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.484575</v>
+        <v>572.42155</v>
       </c>
       <c r="AB5" t="n">
-        <v>327.650725</v>
+        <v>448.703525</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>16.8922875</v>
+        <v>27.3347925</v>
       </c>
       <c r="V6" t="n">
-        <v>70.33334249999999</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>417.3930674999999</v>
+        <v>733.3300324999999</v>
       </c>
       <c r="X6" t="n">
-        <v>655.9326424999999</v>
+        <v>134.2169025</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.81756999999999</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>54.77196249999999</v>
+        <v>59.07181749999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>612.0126949999999</v>
+        <v>128.99565</v>
       </c>
       <c r="AB6" t="n">
-        <v>738.8584174999999</v>
+        <v>758.2077649999999</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +5377,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>119.2482655</v>
+        <v>35.72762375</v>
       </c>
       <c r="V7" t="n">
-        <v>30.6906145</v>
+        <v>65.3639805</v>
       </c>
       <c r="W7" t="n">
-        <v>101.56016325</v>
+        <v>481.56151225</v>
       </c>
       <c r="X7" t="n">
-        <v>828.9980107499999</v>
+        <v>10.308298</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.28384999999999</v>
+        <v>73.56376299999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>106.48003275</v>
+        <v>11.245416</v>
       </c>
       <c r="AA7" t="n">
-        <v>168.4469605</v>
+        <v>160.83287675</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>428.14578625</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +5463,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>14.86853835</v>
+        <v>104.60147155</v>
       </c>
       <c r="V8" t="n">
-        <v>31.82388909999999</v>
+        <v>157.29348465</v>
       </c>
       <c r="W8" t="n">
-        <v>460.9246888499999</v>
+        <v>267.2424129749999</v>
       </c>
       <c r="X8" t="n">
-        <v>910.1110579499998</v>
+        <v>631.7824540999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>125.860872875</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>49.95307182499999</v>
       </c>
       <c r="AA8" t="n">
-        <v>47.60540787499999</v>
+        <v>220.0282824249999</v>
       </c>
       <c r="AB8" t="n">
-        <v>1148.52937465</v>
+        <v>323.5863477749999</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5552,25 +5552,25 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>190.6511014525</v>
+        <v>16.801217305</v>
       </c>
       <c r="W9" t="n">
-        <v>138.2540847725</v>
+        <v>165.0221259025</v>
       </c>
       <c r="X9" t="n">
-        <v>551.3077407199999</v>
+        <v>890.7492835599999</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.94332614749999</v>
+        <v>72.90019711999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>45.13547360749999</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>380.3055205224999</v>
+        <v>349.408366665</v>
       </c>
       <c r="AB9" t="n">
-        <v>346.4183195174999</v>
+        <v>817.1371704524998</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5635,28 +5635,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>66.61802182124998</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>17.91795069675</v>
+        <v>243.0409209892499</v>
       </c>
       <c r="W10" t="n">
-        <v>426.5084845337499</v>
+        <v>21.44028288499999</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.320295789</v>
+        <v>415.4820533357499</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.66176762799998</v>
+        <v>61.87053061099999</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>94.49038957174997</v>
       </c>
       <c r="AA10" t="n">
-        <v>255.9050907202499</v>
+        <v>346.7200032259999</v>
       </c>
       <c r="AB10" t="n">
-        <v>1264.0578209485</v>
+        <v>312.4155506099999</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,28 +5721,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.450160030125</v>
       </c>
       <c r="V11" t="n">
-        <v>108.607870113325</v>
+        <v>201.421192399075</v>
       </c>
       <c r="W11" t="n">
-        <v>69.36574612935</v>
+        <v>946.6958873146499</v>
       </c>
       <c r="X11" t="n">
-        <v>631.1305915431</v>
+        <v>1364.5186679905</v>
       </c>
       <c r="Y11" t="n">
-        <v>160.2251037354</v>
+        <v>161.039255685275</v>
       </c>
       <c r="Z11" t="n">
-        <v>123.588265991025</v>
+        <v>32.89173877495</v>
       </c>
       <c r="AA11" t="n">
-        <v>250.7588005615</v>
+        <v>730.9456205977749</v>
       </c>
       <c r="AB11" t="n">
-        <v>56.176484541375</v>
+        <v>657.0206235491249</v>
       </c>
     </row>
   </sheetData>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>88403.40000000001</v>
+        <v>150338</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29467.8</v>
+        <v>300676</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7515</v>
+        <v>24732</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45289.8</v>
+        <v>199074</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7218</v>
+        <v>24316</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34273.8</v>
+        <v>278628</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29467.8</v>
+        <v>300676</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147339</v>
+        <v>751690</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29467.8</v>
+        <v>451013.9999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88403.40000000001</v>
+        <v>751690</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29467.8</v>
+        <v>150338</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117871.2</v>
+        <v>451013.9999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1503</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66398.40000000001</v>
+        <v>223806</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60386.4</v>
+        <v>331790</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58935.6</v>
+        <v>751690</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1443.6</v>
+        <v>30395</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>64341</v>
+        <v>378680</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57123</v>
+        <v>69657</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3177</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>867.6</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6750</v>
+        <v>152085</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>41733</v>
+        <v>71882</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>783</v>
+        <v>10629</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1981.8</v>
+        <v>10144</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25137</v>
+        <v>77703</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19191.6</v>
+        <v>43756</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -3052,7 +3052,7 @@
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>63.93123449999999</v>
+        <v>40.5350568</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>62732</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>47.22116579999999</v>
+        <v>29.94017951999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4096988</v>
+        <v>6.052205279999999</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>82.86455249999999</v>
+        <v>59.692248</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>8.510296049999997</v>
+        <v>6.686907839999998</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>100.30608</v>
+        <v>54.64704</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3226,7 +3226,7 @@
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>5.412168</v>
+        <v>3.4315392</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3255,7 +3255,7 @@
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>8.388860399999999</v>
+        <v>5.31888576</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3284,7 +3284,7 @@
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>8.118251999999998</v>
+        <v>5.147308799999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3313,7 +3313,7 @@
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>5.7504285</v>
+        <v>3.6460104</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3342,7 +3342,7 @@
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>5.6151243</v>
+        <v>3.56022192</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3371,7 +3371,7 @@
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>8.0505999</v>
+        <v>5.104414559999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3400,7 +3400,7 @@
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3821094</v>
+        <v>0.2221586400000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3429,7 +3429,7 @@
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>47.0328309</v>
+        <v>33.15830760000001</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3458,7 +3458,7 @@
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>3.1951377</v>
+        <v>2.30164704</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3487,7 +3487,7 @@
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>5.6151243</v>
+        <v>3.56022192</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3474148499999999</v>
+        <v>0.27297888</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3545,7 +3545,7 @@
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>61.2439164</v>
+        <v>34.55027208000001</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3574,7 +3574,7 @@
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>2.758417200000001</v>
+        <v>1.5027936</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1679</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>2.85494625</v>
+        <v>2.911194</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>900</v>
+        <v>1653</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>8.06729625</v>
+        <v>3.4278816</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>10540</v>
+        <v>8584</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>40.14587744999999</v>
+        <v>26.75388744</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>10470</v>
+        <v>6529</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>48.76295175</v>
+        <v>37.3529556</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>737</v>
+        <v>1967</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>5.18960925</v>
+        <v>4.6114236</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>592</v>
+        <v>813</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>3.6929232</v>
+        <v>2.37108192</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>5969</v>
+        <v>6495</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>39.15065655</v>
+        <v>25.31019936</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>13840</v>
+        <v>13806</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>66.90729960000002</v>
+        <v>32.42425968</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3985,28 +3985,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="V2" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5271</v>
+        <v>7377</v>
       </c>
       <c r="X2" t="n">
-        <v>3579</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>125</v>
+        <v>416</v>
       </c>
       <c r="AA2" t="n">
-        <v>4436</v>
+        <v>1986</v>
       </c>
       <c r="AB2" t="n">
-        <v>8743</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4071,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="W3" t="n">
-        <v>704</v>
+        <v>298</v>
       </c>
       <c r="X3" t="n">
-        <v>5528</v>
+        <v>5399</v>
       </c>
       <c r="Y3" t="n">
-        <v>99</v>
+        <v>611</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>307</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>4090</v>
       </c>
       <c r="AB3" t="n">
-        <v>241</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="V4" t="n">
-        <v>191</v>
+        <v>943</v>
       </c>
       <c r="W4" t="n">
-        <v>4006</v>
+        <v>845</v>
       </c>
       <c r="X4" t="n">
-        <v>839</v>
+        <v>1048</v>
       </c>
       <c r="Y4" t="n">
-        <v>582</v>
+        <v>1326</v>
       </c>
       <c r="Z4" t="n">
-        <v>419</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="n">
-        <v>1280</v>
+        <v>352</v>
       </c>
       <c r="AB4" t="n">
-        <v>4197</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="V5" t="n">
-        <v>507</v>
+        <v>677</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>8738</v>
       </c>
       <c r="X5" t="n">
-        <v>2403</v>
+        <v>6433</v>
       </c>
       <c r="Y5" t="n">
-        <v>329</v>
+        <v>495</v>
       </c>
       <c r="Z5" t="n">
-        <v>109</v>
+        <v>366</v>
       </c>
       <c r="AA5" t="n">
-        <v>6658</v>
+        <v>2244</v>
       </c>
       <c r="AB5" t="n">
-        <v>5219</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>267</v>
+        <v>676</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="W6" t="n">
-        <v>7163</v>
+        <v>2038</v>
       </c>
       <c r="X6" t="n">
-        <v>1311</v>
+        <v>10637</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="Z6" t="n">
-        <v>577</v>
+        <v>209</v>
       </c>
       <c r="AA6" t="n">
-        <v>1260</v>
+        <v>2461</v>
       </c>
       <c r="AB6" t="n">
-        <v>7406</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>558</v>
+        <v>1556</v>
       </c>
       <c r="W7" t="n">
-        <v>4111</v>
+        <v>1504</v>
       </c>
       <c r="X7" t="n">
-        <v>88</v>
+        <v>6167</v>
       </c>
       <c r="Y7" t="n">
-        <v>628</v>
+        <v>400</v>
       </c>
       <c r="Z7" t="n">
-        <v>96</v>
+        <v>508</v>
       </c>
       <c r="AA7" t="n">
-        <v>1373</v>
+        <v>3131</v>
       </c>
       <c r="AB7" t="n">
-        <v>3655</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>802</v>
+        <v>531</v>
       </c>
       <c r="V8" t="n">
-        <v>1206</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2049</v>
+        <v>6554</v>
       </c>
       <c r="X8" t="n">
-        <v>4844</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="Z8" t="n">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="AA8" t="n">
-        <v>1687</v>
+        <v>6368</v>
       </c>
       <c r="AB8" t="n">
-        <v>2481</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,28 +4587,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="V9" t="n">
-        <v>118</v>
+        <v>328</v>
       </c>
       <c r="W9" t="n">
-        <v>1159</v>
+        <v>6802</v>
       </c>
       <c r="X9" t="n">
-        <v>6256</v>
+        <v>9204</v>
       </c>
       <c r="Y9" t="n">
-        <v>512</v>
+        <v>1264</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="AA9" t="n">
-        <v>2454</v>
+        <v>4801</v>
       </c>
       <c r="AB9" t="n">
-        <v>5739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="V10" t="n">
-        <v>1587</v>
+        <v>354</v>
       </c>
       <c r="W10" t="n">
-        <v>140</v>
+        <v>2571</v>
       </c>
       <c r="X10" t="n">
-        <v>2713</v>
+        <v>8123</v>
       </c>
       <c r="Y10" t="n">
-        <v>404</v>
+        <v>294</v>
       </c>
       <c r="Z10" t="n">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>2264</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>2040</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>795</v>
+        <v>376</v>
       </c>
       <c r="V11" t="n">
-        <v>1237</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5814</v>
+        <v>1280</v>
       </c>
       <c r="X11" t="n">
-        <v>8380</v>
+        <v>4610</v>
       </c>
       <c r="Y11" t="n">
-        <v>989</v>
+        <v>323</v>
       </c>
       <c r="Z11" t="n">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="AA11" t="n">
-        <v>4489</v>
+        <v>5963</v>
       </c>
       <c r="AB11" t="n">
-        <v>4035</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4947,28 +4947,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>29.12499999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>16.775</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>131.775</v>
+        <v>184.425</v>
       </c>
       <c r="X2" t="n">
-        <v>89.47499999999998</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.124999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.9</v>
+        <v>49.64999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.575</v>
+        <v>116.55</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5033,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>10.3075</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>32.58499999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>33.43999999999999</v>
+        <v>14.155</v>
       </c>
       <c r="X3" t="n">
-        <v>262.5799999999999</v>
+        <v>256.4524999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.702499999999999</v>
+        <v>29.02249999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3799999999999999</v>
+        <v>14.5825</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>194.2749999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.4475</v>
+        <v>277.6374999999999</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>19.17324999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>12.94025</v>
+        <v>63.88824999999998</v>
       </c>
       <c r="W4" t="n">
-        <v>271.4064999999999</v>
+        <v>57.24874999999998</v>
       </c>
       <c r="X4" t="n">
-        <v>56.84224999999998</v>
+        <v>71.00199999999998</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.43049999999999</v>
+        <v>89.83649999999997</v>
       </c>
       <c r="Z4" t="n">
-        <v>28.38724999999999</v>
+        <v>5.623249999999998</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.71999999999997</v>
+        <v>23.84799999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.3467499999999</v>
+        <v>213.1414999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>42.6436</v>
       </c>
       <c r="V5" t="n">
-        <v>43.589325</v>
+        <v>58.20507499999999</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>751.24955</v>
       </c>
       <c r="X5" t="n">
-        <v>206.597925</v>
+        <v>553.077175</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.285775</v>
+        <v>42.55762499999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.371274999999999</v>
+        <v>31.46685</v>
       </c>
       <c r="AA5" t="n">
-        <v>572.42155</v>
+        <v>192.9279</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.703525</v>
+        <v>167.30735</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>27.3347925</v>
+        <v>69.20718999999998</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>30.30373999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>733.3300324999999</v>
+        <v>208.645345</v>
       </c>
       <c r="X6" t="n">
-        <v>134.2169025</v>
+        <v>1088.9894675</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>60.50510249999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>59.07181749999999</v>
+        <v>21.3968975</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.99565</v>
+        <v>251.9510275</v>
       </c>
       <c r="AB6" t="n">
-        <v>758.2077649999999</v>
+        <v>616.0054174999999</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +5377,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>35.72762375</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>65.3639805</v>
+        <v>182.269451</v>
       </c>
       <c r="W7" t="n">
-        <v>481.56151225</v>
+        <v>176.178184</v>
       </c>
       <c r="X7" t="n">
-        <v>10.308298</v>
+        <v>722.4008382499999</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.56376299999999</v>
+        <v>46.85589999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.245416</v>
+        <v>59.50699299999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.83287675</v>
+        <v>366.7645572499999</v>
       </c>
       <c r="AB7" t="n">
-        <v>428.14578625</v>
+        <v>420.0631435</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +5463,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>104.60147155</v>
+        <v>69.25608652499999</v>
       </c>
       <c r="V8" t="n">
-        <v>157.29348465</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>267.2424129749999</v>
+        <v>854.8105293499998</v>
       </c>
       <c r="X8" t="n">
-        <v>631.7824540999999</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>78.12503922499998</v>
       </c>
       <c r="Z8" t="n">
-        <v>49.95307182499999</v>
+        <v>44.08391194999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>220.0282824249999</v>
+        <v>830.5513351999998</v>
       </c>
       <c r="AB8" t="n">
-        <v>323.5863477749999</v>
+        <v>1009.4954985</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5549,28 +5549,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>29.18855548749999</v>
       </c>
       <c r="V9" t="n">
-        <v>16.801217305</v>
+        <v>46.70168877999999</v>
       </c>
       <c r="W9" t="n">
-        <v>165.0221259025</v>
+        <v>968.4905093949998</v>
       </c>
       <c r="X9" t="n">
-        <v>890.7492835599999</v>
+        <v>1310.49494979</v>
       </c>
       <c r="Y9" t="n">
-        <v>72.90019711999999</v>
+        <v>179.97236164</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>75.74786106999998</v>
       </c>
       <c r="AA9" t="n">
-        <v>349.408366665</v>
+        <v>683.5817311974998</v>
       </c>
       <c r="AB9" t="n">
-        <v>817.1371704524998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5635,28 +5635,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>30.32268579449999</v>
       </c>
       <c r="V10" t="n">
-        <v>243.0409209892499</v>
+        <v>54.21328672349999</v>
       </c>
       <c r="W10" t="n">
-        <v>21.44028288499999</v>
+        <v>393.7354806952499</v>
       </c>
       <c r="X10" t="n">
-        <v>415.4820533357499</v>
+        <v>1243.99584196325</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.87053061099999</v>
+        <v>45.02459405849999</v>
       </c>
       <c r="Z10" t="n">
-        <v>94.49038957174997</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>346.7200032259999</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>312.4155506099999</v>
+        <v>1043.98863162175</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,28 +5721,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.450160030125</v>
+        <v>61.22422663059999</v>
       </c>
       <c r="V11" t="n">
-        <v>201.421192399075</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>946.6958873146499</v>
+        <v>208.422899168</v>
       </c>
       <c r="X11" t="n">
-        <v>1364.5186679905</v>
+        <v>750.64809778475</v>
       </c>
       <c r="Y11" t="n">
-        <v>161.039255685275</v>
+        <v>52.59421596192499</v>
       </c>
       <c r="Z11" t="n">
-        <v>32.89173877495</v>
+        <v>47.87213465265</v>
       </c>
       <c r="AA11" t="n">
-        <v>730.9456205977749</v>
+        <v>970.957615420925</v>
       </c>
       <c r="AB11" t="n">
-        <v>657.0206235491249</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>150338</v>
+        <v>893630</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>300676</v>
+        <v>893630</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24732</v>
+        <v>17974</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>199074</v>
+        <v>89628</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24316</v>
+        <v>8956</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>278628</v>
+        <v>284620</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>300676</v>
+        <v>536178</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751690</v>
+        <v>536178</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>451013.9999999999</v>
+        <v>357452</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751690</v>
+        <v>893630</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150338</v>
+        <v>893630</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>451013.9999999999</v>
+        <v>536178</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8244</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>223806</v>
+        <v>394460</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331790</v>
+        <v>179256</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>751690</v>
+        <v>178726</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30395</v>
+        <v>35824</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>378680</v>
+        <v>400555</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>69657</v>
+        <v>213465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2169</v>
+        <v>20735</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30375</v>
+        <v>19360</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>152085</v>
+        <v>38007</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>71882</v>
+        <v>103242</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10629</v>
+        <v>29515</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10144</v>
+        <v>15265</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>77703</v>
+        <v>125584</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>43756</v>
+        <v>198795</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>31470</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>40.5350568</v>
+        <v>20.025656</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>62732</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>29.94017951999999</v>
+        <v>14.79143691851852</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>6.052205279999999</v>
+        <v>2.139044977777778</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>59.692248</v>
+        <v>30.82922222222222</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>6.686907839999998</v>
+        <v>2.477738666666666</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>54.64704</v>
+        <v>27.27291259259259</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>31470</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>3.4315392</v>
+        <v>1.69529362962963</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>31470</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>5.31888576</v>
+        <v>2.627705125925926</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31470</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>5.147308799999999</v>
+        <v>2.542940444444445</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>31470</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>3.6460104</v>
+        <v>1.801249481481482</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>31470</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>3.56022192</v>
+        <v>1.758867140740741</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31470</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>5.104414559999999</v>
+        <v>2.521749274074074</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2221586400000001</v>
+        <v>0.07851804444444445</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>14354</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>33.15830760000001</v>
+        <v>16.63258897777778</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13343</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>2.30164704</v>
+        <v>1.188730370370371</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>31470</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>3.56022192</v>
+        <v>1.758867140740741</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1597</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.27297888</v>
+        <v>0.1011484444444444</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>17116</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>34.55027208000001</v>
+        <v>16.74665564444444</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>15518</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>1.5027936</v>
+        <v>0.7500050962962963</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1679</v>
+        <v>94</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>2.911194</v>
+        <v>0.9893866666666664</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1653</v>
+        <v>111</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>3.4278816</v>
+        <v>1.251398874074074</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>8584</v>
+        <v>7340</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>26.75388744</v>
+        <v>17.6424946962963</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>6529</v>
+        <v>8291</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>37.3529556</v>
+        <v>15.35979466666667</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1967</v>
+        <v>559</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>4.6114236</v>
+        <v>1.486787555555556</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>813</v>
+        <v>216</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>2.37108192</v>
+        <v>1.099185303703704</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>6495</v>
+        <v>3797</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>25.31019936</v>
+        <v>11.5599362962963</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>13806</v>
+        <v>3687</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>32.42425968</v>
+        <v>17.26626998518519</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3832,7 +3832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3985,28 +3985,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="W2" t="n">
-        <v>7377</v>
+        <v>2146</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>5383</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="Z2" t="n">
-        <v>416</v>
+        <v>215</v>
       </c>
       <c r="AA2" t="n">
-        <v>1986</v>
+        <v>1252</v>
       </c>
       <c r="AB2" t="n">
-        <v>4662</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4071,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="V3" t="n">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>298</v>
+        <v>5119</v>
       </c>
       <c r="X3" t="n">
-        <v>5399</v>
+        <v>2840</v>
       </c>
       <c r="Y3" t="n">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>4090</v>
+        <v>2507</v>
       </c>
       <c r="AB3" t="n">
-        <v>5845</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>283</v>
+        <v>547</v>
       </c>
       <c r="V4" t="n">
-        <v>943</v>
+        <v>198</v>
       </c>
       <c r="W4" t="n">
-        <v>845</v>
+        <v>3030</v>
       </c>
       <c r="X4" t="n">
-        <v>1048</v>
+        <v>2687</v>
       </c>
       <c r="Y4" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="AA4" t="n">
-        <v>352</v>
+        <v>3190</v>
       </c>
       <c r="AB4" t="n">
-        <v>3146</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>496</v>
+        <v>112</v>
       </c>
       <c r="V5" t="n">
-        <v>677</v>
+        <v>136</v>
       </c>
       <c r="W5" t="n">
-        <v>8738</v>
+        <v>7144</v>
       </c>
       <c r="X5" t="n">
-        <v>6433</v>
+        <v>224</v>
       </c>
       <c r="Y5" t="n">
-        <v>495</v>
+        <v>919</v>
       </c>
       <c r="Z5" t="n">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="AA5" t="n">
-        <v>2244</v>
+        <v>3492</v>
       </c>
       <c r="AB5" t="n">
-        <v>1946</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2038</v>
+        <v>6729</v>
       </c>
       <c r="X6" t="n">
-        <v>10637</v>
+        <v>2140</v>
       </c>
       <c r="Y6" t="n">
-        <v>591</v>
+        <v>277</v>
       </c>
       <c r="Z6" t="n">
-        <v>209</v>
+        <v>590</v>
       </c>
       <c r="AA6" t="n">
-        <v>2461</v>
+        <v>2775</v>
       </c>
       <c r="AB6" t="n">
-        <v>6017</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="V7" t="n">
-        <v>1556</v>
+        <v>1483</v>
       </c>
       <c r="W7" t="n">
-        <v>1504</v>
+        <v>4102</v>
       </c>
       <c r="X7" t="n">
-        <v>6167</v>
+        <v>1560</v>
       </c>
       <c r="Y7" t="n">
-        <v>400</v>
+        <v>1465</v>
       </c>
       <c r="Z7" t="n">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>3131</v>
+        <v>4615</v>
       </c>
       <c r="AB7" t="n">
-        <v>3586</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="W8" t="n">
-        <v>6554</v>
+        <v>5792</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>8277</v>
       </c>
       <c r="Y8" t="n">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="Z8" t="n">
-        <v>338</v>
+        <v>722</v>
       </c>
       <c r="AA8" t="n">
-        <v>6368</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>7740</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,28 +4587,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="V9" t="n">
-        <v>328</v>
+        <v>877</v>
       </c>
       <c r="W9" t="n">
-        <v>6802</v>
+        <v>2659</v>
       </c>
       <c r="X9" t="n">
-        <v>9204</v>
+        <v>10741</v>
       </c>
       <c r="Y9" t="n">
-        <v>1264</v>
+        <v>819</v>
       </c>
       <c r="Z9" t="n">
-        <v>532</v>
+        <v>372</v>
       </c>
       <c r="AA9" t="n">
-        <v>4801</v>
+        <v>524</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="V10" t="n">
-        <v>354</v>
+        <v>1010</v>
       </c>
       <c r="W10" t="n">
-        <v>2571</v>
+        <v>6863</v>
       </c>
       <c r="X10" t="n">
-        <v>8123</v>
+        <v>3062</v>
       </c>
       <c r="Y10" t="n">
-        <v>294</v>
+        <v>603</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>3233</v>
       </c>
       <c r="AB10" t="n">
-        <v>6817</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,27 +4759,887 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>376</v>
+        <v>70</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1280</v>
+        <v>5652</v>
       </c>
       <c r="X11" t="n">
-        <v>4610</v>
+        <v>6053</v>
       </c>
       <c r="Y11" t="n">
-        <v>323</v>
+        <v>541</v>
       </c>
       <c r="Z11" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>5963</v>
+        <v>3646</v>
       </c>
       <c r="AB11" t="n">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1004</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1236</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2297</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>383</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1288</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>387</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8372</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2439</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>456</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5792</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>992</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2641</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4797</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>235</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1492</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>36</v>
+      </c>
+      <c r="V15" t="n">
+        <v>546</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2007</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2043</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>414</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1795</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>302</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>394</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4746</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>350</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>225</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1539</v>
+      </c>
+      <c r="V17" t="n">
+        <v>320</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5360</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3802</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2471</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>272</v>
+      </c>
+      <c r="V18" t="n">
+        <v>453</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4848</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3020</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>419</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3155</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>318</v>
+      </c>
+      <c r="V19" t="n">
+        <v>197</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10366</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4770</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>741</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8151</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>10593</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8687</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>202</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>738</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6350</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>369</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6453</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6401</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>335</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2347</v>
+      </c>
+      <c r="AB21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4794,7 +5654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4947,28 +5807,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>29.12499999999999</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.774999999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>184.425</v>
+        <v>53.64999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>134.575</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.4</v>
+        <v>5.374999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.64999999999999</v>
+        <v>31.29999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.55</v>
+        <v>44.22499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5033,28 +5893,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>10.3075</v>
+        <v>4.417499999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>32.58499999999999</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.155</v>
+        <v>243.1524999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>256.4524999999999</v>
+        <v>134.8999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.02249999999999</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5825</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.2749999999999</v>
+        <v>119.0825</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.6374999999999</v>
+        <v>89.53749999999998</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5979,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>19.17324999999999</v>
+        <v>37.05924999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>63.88824999999998</v>
+        <v>13.41449999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>57.24874999999998</v>
+        <v>205.2824999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>71.00199999999998</v>
+        <v>182.0442499999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.83649999999997</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.623249999999998</v>
+        <v>17.47949999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>23.84799999999999</v>
+        <v>216.1224999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.1414999999999</v>
+        <v>136.855</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +6065,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>42.6436</v>
+        <v>9.629199999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>58.20507499999999</v>
+        <v>11.6926</v>
       </c>
       <c r="W5" t="n">
-        <v>751.24955</v>
+        <v>614.2053999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>553.077175</v>
+        <v>19.2584</v>
       </c>
       <c r="Y5" t="n">
-        <v>42.55762499999999</v>
+        <v>79.01102499999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>31.46685</v>
+        <v>33.3583</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.9279</v>
+        <v>300.2247</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.30735</v>
+        <v>559.611275</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +6151,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>69.20718999999998</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>30.30373999999999</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>208.645345</v>
+        <v>688.8981974999999</v>
       </c>
       <c r="X6" t="n">
-        <v>1088.9894675</v>
+        <v>219.08785</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.50510249999999</v>
+        <v>28.3585675</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.3968975</v>
+        <v>60.40272499999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>251.9510275</v>
+        <v>284.0975624999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>616.0054174999999</v>
+        <v>1194.0287825</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +6237,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>29.7534965</v>
       </c>
       <c r="V7" t="n">
-        <v>182.269451</v>
+        <v>173.71824925</v>
       </c>
       <c r="W7" t="n">
-        <v>176.178184</v>
+        <v>480.5072544999999</v>
       </c>
       <c r="X7" t="n">
-        <v>722.4008382499999</v>
+        <v>182.73801</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.85589999999999</v>
+        <v>171.60973375</v>
       </c>
       <c r="Z7" t="n">
-        <v>59.50699299999999</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>366.7645572499999</v>
+        <v>540.5999462499999</v>
       </c>
       <c r="AB7" t="n">
-        <v>420.0631435</v>
+        <v>558.053769</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +6323,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>69.25608652499999</v>
+        <v>71.60375047499998</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>59.73500494999998</v>
       </c>
       <c r="W8" t="n">
-        <v>854.8105293499998</v>
+        <v>755.4260887999998</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1079.534139675</v>
       </c>
       <c r="Y8" t="n">
-        <v>78.12503922499998</v>
+        <v>41.86667377499999</v>
       </c>
       <c r="Z8" t="n">
-        <v>44.08391194999999</v>
+        <v>94.16740954999997</v>
       </c>
       <c r="AA8" t="n">
-        <v>830.5513351999998</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1009.4954985</v>
+        <v>584.4378977749999</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5549,28 +6409,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>29.18855548749999</v>
+        <v>17.0859837</v>
       </c>
       <c r="V9" t="n">
-        <v>46.70168877999999</v>
+        <v>124.8700642075</v>
       </c>
       <c r="W9" t="n">
-        <v>968.4905093949998</v>
+        <v>378.5969221524999</v>
       </c>
       <c r="X9" t="n">
-        <v>1310.49494979</v>
+        <v>1529.3379243475</v>
       </c>
       <c r="Y9" t="n">
-        <v>179.97236164</v>
+        <v>116.6118387525</v>
       </c>
       <c r="Z9" t="n">
-        <v>75.74786106999998</v>
+        <v>52.96654946999999</v>
       </c>
       <c r="AA9" t="n">
-        <v>683.5817311974998</v>
+        <v>74.60879548999999</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>358.8056576999999</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5635,28 +6495,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>30.32268579449999</v>
+        <v>16.08021216375</v>
       </c>
       <c r="V10" t="n">
-        <v>54.21328672349999</v>
+        <v>154.6763265275</v>
       </c>
       <c r="W10" t="n">
-        <v>393.7354806952499</v>
+        <v>1051.03329599825</v>
       </c>
       <c r="X10" t="n">
-        <v>1243.99584196325</v>
+        <v>468.9296156704999</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.02459405849999</v>
+        <v>92.34636128324998</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>56.81674964524998</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>495.1173897657499</v>
       </c>
       <c r="AB10" t="n">
-        <v>1043.98863162175</v>
+        <v>599.5621963912498</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,27 +6581,887 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>61.22422663059999</v>
+        <v>11.39812729825</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>208.422899168</v>
+        <v>920.3173641387</v>
       </c>
       <c r="X11" t="n">
-        <v>750.64809778475</v>
+        <v>985.6123505186749</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.59421596192499</v>
+        <v>88.09124097647499</v>
       </c>
       <c r="Z11" t="n">
-        <v>47.87213465265</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>970.957615420925</v>
+        <v>593.67960184885</v>
       </c>
       <c r="AB11" t="n">
+        <v>722.4784403190749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>172.23354038141</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>212.03252580819</v>
+      </c>
+      <c r="X12" t="n">
+        <v>394.0442651953175</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>65.70263542438249</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13.03759867429</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>220.95298805902</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1653.03027401919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>69.42494234546324</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.0763556952785</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1501.874980145267</v>
+      </c>
+      <c r="X13" t="n">
+        <v>437.5385901307102</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>81.80303284116599</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10.58416433690525</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1039.042031175512</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>724.9255607700696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>184.9617274574408</v>
+      </c>
+      <c r="W14" t="n">
+        <v>492.4233086845777</v>
+      </c>
+      <c r="X14" t="n">
+        <v>894.4167405376446</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.7458134171670999</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>43.81653825856712</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>278.1884046033283</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6.941088679053509</v>
+      </c>
+      <c r="V15" t="n">
+        <v>105.2731782989782</v>
+      </c>
+      <c r="W15" t="n">
+        <v>386.9656938572331</v>
+      </c>
+      <c r="X15" t="n">
+        <v>393.9067825362866</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>79.82251980911535</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6.362664622465716</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>346.0903938583625</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>960.7623579923231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>59.95521952685399</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>78.21972348867708</v>
+      </c>
+      <c r="X16" t="n">
+        <v>942.2101717696989</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>69.4845259417182</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>44.66862381967599</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>861.0125400263768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>313.4550482339254</v>
+      </c>
+      <c r="V17" t="n">
+        <v>65.17583848918527</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1091.695294693853</v>
+      </c>
+      <c r="X17" t="n">
+        <v>774.3704310496324</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>59.06560363082415</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>503.2796778336775</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>950.1415204751539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>56.65951644422672</v>
+      </c>
+      <c r="V18" t="n">
+        <v>94.3630917251276</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1009.872557800041</v>
+      </c>
+      <c r="X18" t="n">
+        <v>629.0872781675173</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13.12334388230251</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>87.28065216959926</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>657.2087293438799</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>829.0620420883175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>67.56747649388856</v>
+      </c>
+      <c r="V19" t="n">
+        <v>41.85783921162279</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2202.529752627827</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1013.512147408328</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>157.4449688112309</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1731.89465692354</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1401.493946395248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2290.51069386725</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1878.378778214368</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>43.67819882575139</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>159.5767858089333</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1373.052289819412</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>766.7469952282892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>81.03455361401998</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1417.116461981764</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1405.696958491441</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>73.56795517803982</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>515.4148979189835</v>
+      </c>
+      <c r="AB21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5774,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>893630</v>
+        <v>536401.5000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>893630</v>
+        <v>357601.0000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17974</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +7518,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>89628</v>
+        <v>281212.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +7526,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8956</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +7534,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>284620</v>
+        <v>71911</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +7542,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>536178</v>
+        <v>715202.0000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +7550,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>536178</v>
+        <v>357601.0000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +7558,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357452</v>
+        <v>178800.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +7566,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893630</v>
+        <v>357601.0000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +7574,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893630</v>
+        <v>536401.5000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +7582,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>536178</v>
+        <v>894002.5000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +7590,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44935</v>
+        <v>32160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +7598,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394460</v>
+        <v>100169.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +7606,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>179256</v>
+        <v>374950</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +7614,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>178726</v>
+        <v>357601.0000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +7622,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>35824</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +7630,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>400555</v>
+        <v>393155</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +7638,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>213465</v>
+        <v>359555</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +7646,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20735</v>
+        <v>11416</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +7654,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19360</v>
+        <v>10734</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +7662,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38007</v>
+        <v>253765</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +7670,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>103242</v>
+        <v>214922.5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +7678,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29515</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +7686,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15265</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +7694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>125584</v>
+        <v>58075</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +7702,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>198795</v>
+        <v>171494</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +7812,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7694,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>31470</v>
+        <v>28999</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>20.025656</v>
+        <v>18.463648</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3081,7 +3081,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>14.79143691851852</v>
+        <v>13.63769979259259</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>2.139044977777778</v>
+        <v>3.343920592592592</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>30.82922222222222</v>
+        <v>24.26706666666667</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>2.477738666666666</v>
+        <v>3.430119466666666</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>27.27291259259259</v>
+        <v>27.19706074074074</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>31470</v>
+        <v>28999</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>1.69529362962963</v>
+        <v>1.563060148148148</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>31470</v>
+        <v>28999</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>2.627705125925926</v>
+        <v>2.422743229629629</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>31470</v>
+        <v>28999</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>2.542940444444445</v>
+        <v>2.344590222222222</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>31470</v>
+        <v>28999</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>1.801249481481482</v>
+        <v>1.660751407407407</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>31470</v>
+        <v>28999</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>1.758867140740741</v>
+        <v>1.621674903703703</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>31470</v>
+        <v>28999</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>2.521749274074074</v>
+        <v>2.32505197037037</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1011</v>
+        <v>2461</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07851804444444445</v>
+        <v>0.1227454814814815</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>14354</v>
+        <v>17988</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>16.63258897777778</v>
+        <v>13.92116622222222</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>13343</v>
+        <v>15527</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>1.188730370370371</v>
+        <v>0.9357031111111113</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>31470</v>
+        <v>28999</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>1.758867140740741</v>
+        <v>1.621674903703703</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1597</v>
+        <v>1194</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1011484444444444</v>
+        <v>0.1400273777777778</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>17116</v>
+        <v>11011</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>16.74665564444444</v>
+        <v>17.25418168888889</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>15518</v>
+        <v>9816</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7500050962962963</v>
+        <v>0.7479191703703705</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9893866666666664</v>
+        <v>1.814453333333333</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>111</v>
+        <v>837</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>1.251398874074074</v>
+        <v>1.686135822222222</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>7340</v>
+        <v>6662</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>17.6424946962963</v>
+        <v>9.97619757037037</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>8291</v>
+        <v>9126</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>15.35979466666667</v>
+        <v>16.11073066666667</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>559</v>
+        <v>1641</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>1.486787555555556</v>
+        <v>2.153411555555556</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>216</v>
+        <v>1046</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>1.099185303703704</v>
+        <v>1.42709997037037</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3797</v>
+        <v>492</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>11.5599362962963</v>
+        <v>8.096235022222224</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3687</v>
+        <v>8821</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>17.26626998518519</v>
+        <v>20.68964171851852</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3832,7 +3832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3985,28 +3985,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="V2" t="n">
-        <v>111</v>
+        <v>615</v>
       </c>
       <c r="W2" t="n">
-        <v>2146</v>
+        <v>4734</v>
       </c>
       <c r="X2" t="n">
-        <v>5383</v>
+        <v>5255</v>
       </c>
       <c r="Y2" t="n">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="Z2" t="n">
-        <v>215</v>
+        <v>566</v>
       </c>
       <c r="AA2" t="n">
-        <v>1252</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1769</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4071,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="W3" t="n">
-        <v>5119</v>
+        <v>1876</v>
       </c>
       <c r="X3" t="n">
-        <v>2840</v>
+        <v>3793</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1379</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="AA3" t="n">
-        <v>2507</v>
+        <v>487</v>
       </c>
       <c r="AB3" t="n">
-        <v>1885</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>198</v>
+        <v>1155</v>
       </c>
       <c r="W4" t="n">
-        <v>3030</v>
+        <v>5871</v>
       </c>
       <c r="X4" t="n">
-        <v>2687</v>
+        <v>921</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="Z4" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>3190</v>
+        <v>3296</v>
       </c>
       <c r="AB4" t="n">
-        <v>2020</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>112</v>
+        <v>726</v>
       </c>
       <c r="V5" t="n">
-        <v>136</v>
+        <v>533</v>
       </c>
       <c r="W5" t="n">
-        <v>7144</v>
+        <v>3125</v>
       </c>
       <c r="X5" t="n">
-        <v>224</v>
+        <v>5310</v>
       </c>
       <c r="Y5" t="n">
-        <v>919</v>
+        <v>740</v>
       </c>
       <c r="Z5" t="n">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3492</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>6509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4332,25 +4332,25 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="W6" t="n">
-        <v>6729</v>
+        <v>3872</v>
       </c>
       <c r="X6" t="n">
-        <v>2140</v>
+        <v>9401</v>
       </c>
       <c r="Y6" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>590</v>
+        <v>777</v>
       </c>
       <c r="AA6" t="n">
-        <v>2775</v>
+        <v>4314</v>
       </c>
       <c r="AB6" t="n">
-        <v>11663</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>254</v>
+        <v>1476</v>
       </c>
       <c r="V7" t="n">
-        <v>1483</v>
+        <v>477</v>
       </c>
       <c r="W7" t="n">
-        <v>4102</v>
+        <v>4186</v>
       </c>
       <c r="X7" t="n">
-        <v>1560</v>
+        <v>9572</v>
       </c>
       <c r="Y7" t="n">
-        <v>1465</v>
+        <v>879</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AA7" t="n">
-        <v>4615</v>
+        <v>154</v>
       </c>
       <c r="AB7" t="n">
-        <v>4764</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>549</v>
+        <v>1357</v>
       </c>
       <c r="V8" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>5792</v>
+        <v>1439</v>
       </c>
       <c r="X8" t="n">
-        <v>8277</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>321</v>
+        <v>647</v>
       </c>
       <c r="Z8" t="n">
-        <v>722</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>2982</v>
       </c>
       <c r="AB8" t="n">
-        <v>4481</v>
+        <v>8657</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,28 +4587,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>120</v>
+        <v>882</v>
       </c>
       <c r="V9" t="n">
-        <v>877</v>
+        <v>616</v>
       </c>
       <c r="W9" t="n">
-        <v>2659</v>
+        <v>3223</v>
       </c>
       <c r="X9" t="n">
-        <v>10741</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>819</v>
+        <v>419</v>
       </c>
       <c r="Z9" t="n">
-        <v>372</v>
+        <v>606</v>
       </c>
       <c r="AA9" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AB9" t="n">
-        <v>2520</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="V10" t="n">
-        <v>1010</v>
+        <v>82</v>
       </c>
       <c r="W10" t="n">
-        <v>6863</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3062</v>
+        <v>3111</v>
       </c>
       <c r="Y10" t="n">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="AA10" t="n">
-        <v>3233</v>
+        <v>4823</v>
       </c>
       <c r="AB10" t="n">
-        <v>3915</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,888 +4759,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="W11" t="n">
-        <v>5652</v>
+        <v>373</v>
       </c>
       <c r="X11" t="n">
-        <v>6053</v>
+        <v>7723</v>
       </c>
       <c r="Y11" t="n">
-        <v>541</v>
+        <v>843</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="AA11" t="n">
-        <v>3646</v>
+        <v>3753</v>
       </c>
       <c r="AB11" t="n">
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1004</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1236</v>
-      </c>
-      <c r="X12" t="n">
-        <v>2297</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>383</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1288</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>387</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8372</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2439</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>456</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>59</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>5792</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>992</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2641</v>
-      </c>
-      <c r="X14" t="n">
-        <v>4797</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>235</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1492</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>36</v>
-      </c>
-      <c r="V15" t="n">
-        <v>546</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2007</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2043</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>414</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1795</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>4983</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>302</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>394</v>
-      </c>
-      <c r="X16" t="n">
-        <v>4746</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>350</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>225</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1539</v>
-      </c>
-      <c r="V17" t="n">
-        <v>320</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5360</v>
-      </c>
-      <c r="X17" t="n">
-        <v>3802</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>290</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2471</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>4665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>272</v>
-      </c>
-      <c r="V18" t="n">
-        <v>453</v>
-      </c>
-      <c r="W18" t="n">
-        <v>4848</v>
-      </c>
-      <c r="X18" t="n">
-        <v>3020</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>419</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>3155</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>318</v>
-      </c>
-      <c r="V19" t="n">
-        <v>197</v>
-      </c>
-      <c r="W19" t="n">
-        <v>10366</v>
-      </c>
-      <c r="X19" t="n">
-        <v>4770</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>741</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>8151</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>6596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>10593</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8687</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>202</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>738</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6350</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>3546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>369</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6453</v>
-      </c>
-      <c r="X21" t="n">
-        <v>6401</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>335</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2347</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
+        <v>8289</v>
       </c>
     </row>
   </sheetData>
@@ -5654,7 +4794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5807,28 +4947,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="V2" t="n">
-        <v>2.774999999999999</v>
+        <v>15.375</v>
       </c>
       <c r="W2" t="n">
-        <v>53.64999999999999</v>
+        <v>118.35</v>
       </c>
       <c r="X2" t="n">
-        <v>134.575</v>
+        <v>131.375</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.9</v>
+        <v>6.099999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.374999999999999</v>
+        <v>14.15</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.29999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.22499999999999</v>
+        <v>35.49999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5893,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4.417499999999999</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="W3" t="n">
-        <v>243.1524999999999</v>
+        <v>89.10999999999997</v>
       </c>
       <c r="X3" t="n">
-        <v>134.8999999999999</v>
+        <v>180.1675</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>65.50249999999998</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>22.3725</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.0825</v>
+        <v>23.13249999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.53749999999998</v>
+        <v>346.9874999999999</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5979,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>37.05924999999998</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>13.41449999999999</v>
+        <v>78.25124999999997</v>
       </c>
       <c r="W4" t="n">
-        <v>205.2824999999999</v>
+        <v>397.7602499999999</v>
       </c>
       <c r="X4" t="n">
-        <v>182.0442499999999</v>
+        <v>62.39774999999998</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>29.20024999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.47949999999999</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.1224999999999</v>
+        <v>223.3039999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.855</v>
+        <v>430.5512499999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -6065,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>9.629199999999999</v>
+        <v>62.41784999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>11.6926</v>
+        <v>45.824675</v>
       </c>
       <c r="W5" t="n">
-        <v>614.2053999999999</v>
+        <v>268.671875</v>
       </c>
       <c r="X5" t="n">
-        <v>19.2584</v>
+        <v>456.52725</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.01102499999999</v>
+        <v>63.6215</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.3583</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>300.2247</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>559.611275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -6154,25 +5294,25 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>50.88161749999999</v>
       </c>
       <c r="W6" t="n">
-        <v>688.8981974999999</v>
+        <v>396.4056799999999</v>
       </c>
       <c r="X6" t="n">
-        <v>219.08785</v>
+        <v>962.4508774999998</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.3585675</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>60.40272499999999</v>
+        <v>79.54731749999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>284.0975624999999</v>
+        <v>441.6565349999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>1194.0287825</v>
+        <v>220.521135</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -6237,28 +5377,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>29.7534965</v>
+        <v>172.898271</v>
       </c>
       <c r="V7" t="n">
-        <v>173.71824925</v>
+        <v>55.87566074999999</v>
       </c>
       <c r="W7" t="n">
-        <v>480.5072544999999</v>
+        <v>490.3469934999999</v>
       </c>
       <c r="X7" t="n">
-        <v>182.73801</v>
+        <v>1121.261687</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.60973375</v>
+        <v>102.96584025</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>11.83111475</v>
       </c>
       <c r="AA7" t="n">
-        <v>540.5999462499999</v>
+        <v>18.0395215</v>
       </c>
       <c r="AB7" t="n">
-        <v>558.053769</v>
+        <v>902.9131929999999</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -6323,28 +5463,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>71.60375047499998</v>
+        <v>176.987776675</v>
       </c>
       <c r="V8" t="n">
-        <v>59.73500494999998</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>755.4260887999998</v>
+        <v>187.682690225</v>
       </c>
       <c r="X8" t="n">
-        <v>1079.534139675</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.86667377499999</v>
+        <v>84.38547642499998</v>
       </c>
       <c r="Z8" t="n">
-        <v>94.16740954999997</v>
+        <v>2.217238174999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>388.9296610499999</v>
       </c>
       <c r="AB8" t="n">
-        <v>584.4378977749999</v>
+        <v>1129.095934175</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -6409,28 +5549,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>17.0859837</v>
+        <v>125.581980195</v>
       </c>
       <c r="V9" t="n">
-        <v>124.8700642075</v>
+        <v>87.70804965999999</v>
       </c>
       <c r="W9" t="n">
-        <v>378.5969221524999</v>
+        <v>458.9010455424999</v>
       </c>
       <c r="X9" t="n">
-        <v>1529.3379243475</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>116.6118387525</v>
+        <v>59.65855975249999</v>
       </c>
       <c r="Z9" t="n">
-        <v>52.96654946999999</v>
+        <v>86.28421768499999</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.60879548999999</v>
+        <v>75.17832827999999</v>
       </c>
       <c r="AB9" t="n">
-        <v>358.8056576999999</v>
+        <v>766.4487521424999</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -6495,28 +5635,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>16.08021216375</v>
+        <v>41.50226187024999</v>
       </c>
       <c r="V10" t="n">
-        <v>154.6763265275</v>
+        <v>12.5578799755</v>
       </c>
       <c r="W10" t="n">
-        <v>1051.03329599825</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9296156704999</v>
+        <v>476.4337146802499</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.34636128324998</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>56.81674964524998</v>
+        <v>66.15858718799998</v>
       </c>
       <c r="AA10" t="n">
-        <v>495.1173897657499</v>
+        <v>738.6177453882498</v>
       </c>
       <c r="AB10" t="n">
-        <v>599.5621963912498</v>
+        <v>628.3534334082499</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -6581,888 +5721,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>11.39812729825</v>
+        <v>71.15688041907499</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.58314568425</v>
       </c>
       <c r="W11" t="n">
-        <v>920.3173641387</v>
+        <v>60.735735460675</v>
       </c>
       <c r="X11" t="n">
-        <v>985.6123505186749</v>
+        <v>1257.539101776925</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.09124097647499</v>
+        <v>137.266018748925</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>122.285622871225</v>
       </c>
       <c r="AA11" t="n">
-        <v>593.67960184885</v>
+        <v>611.102453576175</v>
       </c>
       <c r="AB11" t="n">
-        <v>722.4784403190749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>172.23354038141</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>212.03252580819</v>
-      </c>
-      <c r="X12" t="n">
-        <v>394.0442651953175</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>65.70263542438249</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13.03759867429</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>220.95298805902</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1653.03027401919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>69.42494234546324</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.0763556952785</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1501.874980145267</v>
-      </c>
-      <c r="X13" t="n">
-        <v>437.5385901307102</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>81.80303284116599</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>10.58416433690525</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1039.042031175512</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>724.9255607700696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>184.9617274574408</v>
-      </c>
-      <c r="W14" t="n">
-        <v>492.4233086845777</v>
-      </c>
-      <c r="X14" t="n">
-        <v>894.4167405376446</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.7458134171670999</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>43.81653825856712</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>278.1884046033283</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>6.941088679053509</v>
-      </c>
-      <c r="V15" t="n">
-        <v>105.2731782989782</v>
-      </c>
-      <c r="W15" t="n">
-        <v>386.9656938572331</v>
-      </c>
-      <c r="X15" t="n">
-        <v>393.9067825362866</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>79.82251980911535</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>6.362664622465716</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>346.0903938583625</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>960.7623579923231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>59.95521952685399</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>78.21972348867708</v>
-      </c>
-      <c r="X16" t="n">
-        <v>942.2101717696989</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>69.4845259417182</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>44.66862381967599</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>861.0125400263768</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>313.4550482339254</v>
-      </c>
-      <c r="V17" t="n">
-        <v>65.17583848918527</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1091.695294693853</v>
-      </c>
-      <c r="X17" t="n">
-        <v>774.3704310496324</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>59.06560363082415</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>503.2796778336775</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>950.1415204751539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>56.65951644422672</v>
-      </c>
-      <c r="V18" t="n">
-        <v>94.3630917251276</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1009.872557800041</v>
-      </c>
-      <c r="X18" t="n">
-        <v>629.0872781675173</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>13.12334388230251</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>87.28065216959926</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>657.2087293438799</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>829.0620420883175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>67.56747649388856</v>
-      </c>
-      <c r="V19" t="n">
-        <v>41.85783921162279</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2202.529752627827</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1013.512147408328</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>157.4449688112309</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1731.89465692354</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1401.493946395248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2290.51069386725</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1878.378778214368</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>43.67819882575139</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>159.5767858089333</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1373.052289819412</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>766.7469952282892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>81.03455361401998</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1417.116461981764</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1405.696958491441</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>73.56795517803982</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>515.4148979189835</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
+        <v>1349.701102502775</v>
       </c>
     </row>
   </sheetData>
@@ -7494,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>536401.5000000001</v>
+        <v>494562</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7502,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>357601.0000000001</v>
+        <v>494562</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7510,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6432</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7518,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>281212.5</v>
+        <v>295140</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7526,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20160</v>
+        <v>27909</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7534,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71911</v>
+        <v>143422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7542,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715202.0000000001</v>
+        <v>824269.9999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7550,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357601.0000000001</v>
+        <v>824269.9999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7558,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>178800.5</v>
+        <v>824269.9999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7566,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357601.0000000001</v>
+        <v>164854</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7574,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>536401.5000000001</v>
+        <v>329707.9999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7582,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894002.5000000001</v>
+        <v>659415.9999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7590,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32160</v>
+        <v>40220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7598,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100169.5</v>
+        <v>167680</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7606,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>374950</v>
+        <v>221355</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7614,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>357601.0000000001</v>
+        <v>164854</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7622,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33600</v>
+        <v>9303</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7630,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>393155</v>
+        <v>162028</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7638,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>359555</v>
+        <v>358555</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7646,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11416</v>
+        <v>15702</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7654,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10734</v>
+        <v>9642</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7662,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>253765</v>
+        <v>86097</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7670,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>214922.5</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7678,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3854</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7686,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5732</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7694,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>58075</v>
+        <v>101685</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7702,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>171494</v>
+        <v>102748</v>
       </c>
     </row>
   </sheetData>
@@ -7901,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8079,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -8257,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -8346,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8435,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8524,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8613,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8791,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8880,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8969,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9058,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9147,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9236,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9325,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -9503,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -9592,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -9681,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -9770,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -9948,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -10037,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -10126,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_NonStationary.xlsx
+++ b/Instances/05_NonStationary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -46,7 +46,10 @@
     <t>NonStationary</t>
   </si>
   <si>
-    <t>NrTimeBucketWithoutUncertainty</t>
+    <t>NrTimeBucketWithoutUncertaintyBefore</t>
+  </si>
+  <si>
+    <t>NrTimeBucketWithoutUncertaintyAfter</t>
   </si>
   <si>
     <t>Dist_0001</t>
@@ -500,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,6 +569,14 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -590,90 +601,90 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -759,7 +770,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -845,7 +856,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -931,7 +942,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1017,7 +1028,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1103,7 +1114,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1189,7 +1200,7 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1275,7 +1286,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1361,7 +1372,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -1447,7 +1458,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1533,7 +1544,7 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1619,7 +1630,7 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1705,7 +1716,7 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1791,7 +1802,7 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1877,7 +1888,7 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1963,7 +1974,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2049,7 +2060,7 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -2135,7 +2146,7 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2221,7 +2232,7 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2307,7 +2318,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2393,7 +2404,7 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -2479,7 +2490,7 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2565,7 +2576,7 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -2651,7 +2662,7 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -2737,7 +2748,7 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -2823,7 +2834,7 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -2909,7 +2920,7 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -3014,45 +3025,45 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>28999</v>
+        <v>38991</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>18.463648</v>
+        <v>36.5765504</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3069,7 +3080,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -3081,7 +3092,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>13.63769979259259</v>
+        <v>12.88323839999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3098,7 +3109,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -3110,7 +3121,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>3.343920592592592</v>
+        <v>2.055876799999997</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3127,7 +3138,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -3139,7 +3150,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>24.26706666666667</v>
+        <v>18.6886528</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3156,7 +3167,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -3168,7 +3179,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>3.430119466666666</v>
+        <v>1.233076799999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3185,7 +3196,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -3197,7 +3208,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>27.19706074074074</v>
+        <v>15.6786952</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3214,19 +3225,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>28999</v>
+        <v>38991</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>1.563060148148148</v>
+        <v>11.846656</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3243,19 +3254,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>28999</v>
+        <v>38991</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>2.422743229629629</v>
+        <v>18.3623168</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3272,19 +3283,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>28999</v>
+        <v>38991</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>2.344590222222222</v>
+        <v>17.769984</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3301,19 +3312,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>28999</v>
+        <v>38991</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>1.660751407407407</v>
+        <v>12.587072</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3330,19 +3341,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>28999</v>
+        <v>38991</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>1.621674903703703</v>
+        <v>12.2909056</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3359,19 +3370,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>28999</v>
+        <v>38991</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>2.32505197037037</v>
+        <v>17.6219008</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3388,19 +3399,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2461</v>
+        <v>2286</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1227454814814815</v>
+        <v>0.7728296000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3417,19 +3428,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>17988</v>
+        <v>24855</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>13.92116622222222</v>
+        <v>120.0634584</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3446,19 +3457,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>15527</v>
+        <v>22569</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9357031111111113</v>
+        <v>8.3668864</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3475,19 +3486,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>28999</v>
+        <v>38991</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>1.621674903703703</v>
+        <v>12.2909056</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3504,19 +3515,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1194</v>
+        <v>1795</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1400273777777778</v>
+        <v>0.9849104000000001</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3533,19 +3544,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>11011</v>
+        <v>14135</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>17.25418168888889</v>
+        <v>112.1054856</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3562,19 +3573,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>9816</v>
+        <v>12340</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7479191703703705</v>
+        <v>4.8074048</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3591,19 +3602,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>85</v>
+        <v>613</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>1.814453333333333</v>
+        <v>0.4656232000000007</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3620,19 +3631,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>1.686135822222222</v>
+        <v>0.5206080000000006</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3649,19 +3660,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>6662</v>
+        <v>6497</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>9.97619757037037</v>
+        <v>4.479236799999992</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3678,19 +3689,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>9126</v>
+        <v>10372</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>16.11073066666667</v>
+        <v>11.96294399999999</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3707,19 +3718,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1641</v>
+        <v>727</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>2.153411555555556</v>
+        <v>0.5841792000000019</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3736,19 +3747,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1046</v>
+        <v>780</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>1.42709997037037</v>
+        <v>0.462300000000002</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3765,19 +3776,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>492</v>
+        <v>5048</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>8.096235022222224</v>
+        <v>2.246352000000004</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3794,19 +3805,19 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>8821</v>
+        <v>10573</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>20.68964171851852</v>
+        <v>8.019316799999993</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3842,85 +3853,85 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -3985,28 +3996,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="W2" t="n">
-        <v>4734</v>
+        <v>6457</v>
       </c>
       <c r="X2" t="n">
-        <v>5255</v>
+        <v>5840</v>
       </c>
       <c r="Y2" t="n">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="Z2" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>3808</v>
       </c>
       <c r="AB2" t="n">
-        <v>1420</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4071,28 +4082,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="V3" t="n">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="W3" t="n">
-        <v>1876</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3793</v>
+        <v>4442</v>
       </c>
       <c r="Y3" t="n">
-        <v>1379</v>
+        <v>662</v>
       </c>
       <c r="Z3" t="n">
-        <v>471</v>
+        <v>199</v>
       </c>
       <c r="AA3" t="n">
-        <v>487</v>
+        <v>1202</v>
       </c>
       <c r="AB3" t="n">
-        <v>7305</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4168,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="V4" t="n">
-        <v>1155</v>
+        <v>417</v>
       </c>
       <c r="W4" t="n">
-        <v>5871</v>
+        <v>462</v>
       </c>
       <c r="X4" t="n">
-        <v>921</v>
+        <v>7155</v>
       </c>
       <c r="Y4" t="n">
-        <v>431</v>
+        <v>606</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="AA4" t="n">
-        <v>3296</v>
+        <v>2550</v>
       </c>
       <c r="AB4" t="n">
-        <v>6355</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4254,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>726</v>
+        <v>585</v>
       </c>
       <c r="V5" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="W5" t="n">
-        <v>3125</v>
+        <v>3965</v>
       </c>
       <c r="X5" t="n">
-        <v>5310</v>
+        <v>10541</v>
       </c>
       <c r="Y5" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>3057</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4340,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="V6" t="n">
-        <v>497</v>
+        <v>716</v>
       </c>
       <c r="W6" t="n">
-        <v>3872</v>
+        <v>424</v>
       </c>
       <c r="X6" t="n">
-        <v>9401</v>
+        <v>8386</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Z6" t="n">
-        <v>777</v>
+        <v>318</v>
       </c>
       <c r="AA6" t="n">
-        <v>4314</v>
+        <v>2299</v>
       </c>
       <c r="AB6" t="n">
-        <v>2154</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4426,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1476</v>
+        <v>140</v>
       </c>
       <c r="V7" t="n">
-        <v>477</v>
+        <v>350</v>
       </c>
       <c r="W7" t="n">
-        <v>4186</v>
+        <v>6231</v>
       </c>
       <c r="X7" t="n">
-        <v>9572</v>
+        <v>5760</v>
       </c>
       <c r="Y7" t="n">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="Z7" t="n">
-        <v>101</v>
+        <v>802</v>
       </c>
       <c r="AA7" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>7708</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4512,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1357</v>
+        <v>737</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="W8" t="n">
-        <v>1439</v>
+        <v>7233</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>4585</v>
       </c>
       <c r="Y8" t="n">
-        <v>647</v>
+        <v>947</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="AA8" t="n">
-        <v>2982</v>
+        <v>890</v>
       </c>
       <c r="AB8" t="n">
-        <v>8657</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,28 +4598,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>882</v>
+        <v>689</v>
       </c>
       <c r="V9" t="n">
-        <v>616</v>
+        <v>539</v>
       </c>
       <c r="W9" t="n">
-        <v>3223</v>
+        <v>6378</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>2960</v>
       </c>
       <c r="Y9" t="n">
-        <v>419</v>
+        <v>535</v>
       </c>
       <c r="Z9" t="n">
-        <v>606</v>
+        <v>900</v>
       </c>
       <c r="AA9" t="n">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>5383</v>
+        <v>9599</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4673,28 +4684,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>271</v>
+        <v>415</v>
       </c>
       <c r="V10" t="n">
         <v>82</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="X10" t="n">
-        <v>3111</v>
+        <v>5959</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="Z10" t="n">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>4823</v>
+        <v>2744</v>
       </c>
       <c r="AB10" t="n">
-        <v>4103</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,28 +4770,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="V11" t="n">
-        <v>630</v>
+        <v>337</v>
       </c>
       <c r="W11" t="n">
-        <v>373</v>
+        <v>2880</v>
       </c>
       <c r="X11" t="n">
-        <v>7723</v>
+        <v>6679</v>
       </c>
       <c r="Y11" t="n">
-        <v>843</v>
+        <v>802</v>
       </c>
       <c r="Z11" t="n">
-        <v>751</v>
+        <v>512</v>
       </c>
       <c r="AA11" t="n">
-        <v>3753</v>
+        <v>1110</v>
       </c>
       <c r="AB11" t="n">
-        <v>8289</v>
+        <v>5097</v>
       </c>
     </row>
   </sheetData>
@@ -4804,85 +4815,85 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -4947,28 +4958,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15.375</v>
+        <v>17.425</v>
       </c>
       <c r="W2" t="n">
-        <v>118.35</v>
+        <v>161.425</v>
       </c>
       <c r="X2" t="n">
-        <v>131.375</v>
+        <v>146</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.099999999999999</v>
+        <v>1.425</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.15</v>
+        <v>14.375</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>95.19999999999997</v>
       </c>
       <c r="AB2" t="n">
-        <v>35.49999999999999</v>
+        <v>149.475</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5033,28 +5044,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>28.78499999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>10.26</v>
+        <v>7.124999999999998</v>
       </c>
       <c r="W3" t="n">
-        <v>89.10999999999997</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>180.1675</v>
+        <v>210.9949999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.50249999999998</v>
+        <v>31.44499999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.3725</v>
+        <v>9.452499999999997</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.13249999999999</v>
+        <v>57.09499999999998</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.9874999999999</v>
+        <v>213.8449999999999</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5130,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>41.86949999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>78.25124999999997</v>
+        <v>28.25174999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>397.7602499999999</v>
+        <v>31.30049999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>62.39774999999998</v>
+        <v>484.7512499999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.20024999999999</v>
+        <v>41.05649999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>33.67174999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.3039999999999</v>
+        <v>172.7624999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.5512499999999</v>
+        <v>196.0007499999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +5216,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>62.41784999999999</v>
+        <v>50.295375</v>
       </c>
       <c r="V5" t="n">
-        <v>45.824675</v>
+        <v>53.47645</v>
       </c>
       <c r="W5" t="n">
-        <v>268.671875</v>
+        <v>340.890875</v>
       </c>
       <c r="X5" t="n">
-        <v>456.52725</v>
+        <v>906.262475</v>
       </c>
       <c r="Y5" t="n">
-        <v>63.6215</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>56.657525</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>262.825575</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>309.68195</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +5302,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>59.89083749999999</v>
       </c>
       <c r="V6" t="n">
-        <v>50.88161749999999</v>
+        <v>73.30228999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>396.4056799999999</v>
+        <v>43.40805999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>962.4508774999998</v>
+        <v>858.5377149999998</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12.899565</v>
       </c>
       <c r="Z6" t="n">
-        <v>79.54731749999999</v>
+        <v>32.556045</v>
       </c>
       <c r="AA6" t="n">
-        <v>441.6565349999999</v>
+        <v>235.3658725</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.521135</v>
+        <v>658.5944574999999</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +5388,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>172.898271</v>
+        <v>16.399565</v>
       </c>
       <c r="V7" t="n">
-        <v>55.87566074999999</v>
+        <v>40.9989125</v>
       </c>
       <c r="W7" t="n">
-        <v>490.3469934999999</v>
+        <v>729.8977822499999</v>
       </c>
       <c r="X7" t="n">
-        <v>1121.261687</v>
+        <v>674.7249599999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.96584025</v>
+        <v>102.26300175</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.83111475</v>
+        <v>93.9460795</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.0395215</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>902.9131929999999</v>
+        <v>678.3562922499999</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +5474,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>176.987776675</v>
+        <v>96.12379617499998</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>75.38609794999998</v>
       </c>
       <c r="W8" t="n">
-        <v>187.682690225</v>
+        <v>943.3696305749997</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>598.0021783749999</v>
       </c>
       <c r="Y8" t="n">
-        <v>84.38547642499998</v>
+        <v>123.513208925</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.217238174999999</v>
+        <v>20.99854977499999</v>
       </c>
       <c r="AA8" t="n">
-        <v>388.9296610499999</v>
+        <v>116.07893975</v>
       </c>
       <c r="AB8" t="n">
-        <v>1129.095934175</v>
+        <v>93.25442912499997</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5549,28 +5560,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>125.581980195</v>
+        <v>98.10202307749998</v>
       </c>
       <c r="V9" t="n">
-        <v>87.70804965999999</v>
+        <v>76.74454345249998</v>
       </c>
       <c r="W9" t="n">
-        <v>458.9010455424999</v>
+        <v>908.1200336549998</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>421.4542645999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.65855975249999</v>
+        <v>76.17501066249999</v>
       </c>
       <c r="Z9" t="n">
-        <v>86.28421768499999</v>
+        <v>128.14487775</v>
       </c>
       <c r="AA9" t="n">
-        <v>75.17832827999999</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>766.4487521424999</v>
+        <v>1366.7363128025</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5635,28 +5646,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.50226187024999</v>
+        <v>63.55512426624998</v>
       </c>
       <c r="V10" t="n">
         <v>12.5578799755</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>215.4748429942499</v>
       </c>
       <c r="X10" t="n">
-        <v>476.4337146802499</v>
+        <v>912.5903265122498</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>70.90607839824999</v>
       </c>
       <c r="Z10" t="n">
-        <v>66.15858718799998</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>738.6177453882498</v>
+        <v>420.2295445459999</v>
       </c>
       <c r="AB10" t="n">
-        <v>628.3534334082499</v>
+        <v>921.3195845439998</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,28 +5732,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.15688041907499</v>
+        <v>84.02048122709999</v>
       </c>
       <c r="V11" t="n">
-        <v>102.58314568425</v>
+        <v>54.87384142157499</v>
       </c>
       <c r="W11" t="n">
-        <v>60.735735460675</v>
+        <v>468.951523128</v>
       </c>
       <c r="X11" t="n">
-        <v>1257.539101776925</v>
+        <v>1087.544174643025</v>
       </c>
       <c r="Y11" t="n">
-        <v>137.266018748925</v>
+        <v>130.58997275995</v>
       </c>
       <c r="Z11" t="n">
-        <v>122.285622871225</v>
+        <v>83.36915966719999</v>
       </c>
       <c r="AA11" t="n">
-        <v>611.102453576175</v>
+        <v>180.74173287225</v>
       </c>
       <c r="AB11" t="n">
-        <v>1349.701102502775</v>
+        <v>829.9464977025749</v>
       </c>
     </row>
   </sheetData>
@@ -5756,7 +5767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5774,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>494562</v>
+        <v>113985.9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>494562</v>
+        <v>75892.63999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5801,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10055</v>
+        <v>3120088.49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5809,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295140</v>
+        <v>37020.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,183 +5817,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>143422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>824269.9999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>824269.9999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>824269.9999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>164854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>329707.9999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>659415.9999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>40220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>167680</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>221355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>164854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>162028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>358555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>15702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>9642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>86097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>11163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>101685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>102748</v>
+        <v>6147303.839999999</v>
       </c>
     </row>
   </sheetData>
@@ -5996,7 +5831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6004,7 +5839,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -6020,2316 +5855,534 @@
       <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>34.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>36</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>3</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
@@ -8341,72 +6394,6 @@
       </c>
       <c r="F28" t="n">
         <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
